--- a/Greyform-linux-ros1/Python_Application/output.xlsx
+++ b/Greyform-linux-ros1/Python_Application/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N217"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,24 +692,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1498.464062499971</v>
+        <v>1448.379427295356</v>
       </c>
       <c r="E6" t="n">
-        <v>1819.99999999984</v>
+        <v>1791.61810788545</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>LINESTRING (1498.860937499971 1819.99999999984, 1498.067187499971 1819.99999999984)</t>
+          <t>LINESTRING (1498.067187499976 1819.9975351808323, 1493.981466590966 1819.8905468135556, 1489.9069443589726 1819.5698749594033, 1485.8547887862173 1819.0363985576375, 1481.836106549463 1818.2915798299944, 1477.8619125773853 1817.3374602728345, 1473.9430998594191 1816.1766550615441, 1470.0904095888309 1814.8123458825207, 1466.314401721855 1813.2482722123918, 1462.625426033588 1811.4887210683703, 1459.0335937499735 1809.538515257837, 1455.548749833636 1807.4030001593608, 1452.1804459995217 1805.0880290713894, 1448.9379145343119 1802.599947168763, 1445.830042991367 1799.9455741110323, 1442.8653498305607 1797.1321853502454, 1440.0519610697736 1794.1674921894394, 1437.397588012043 1791.0596206464947, 1434.9095061094163 1787.817089181285, 1432.5945350214447 1784.4487853471708, 1430.4590199229683 1780.9639414308333, 1428.5088141124347 1777.3721091472191, 1426.749262968413 1773.6831334589522, 1425.185189298284 1769.9071255919764, 1423.8208801192602 1766.0544353213882, 1422.6600749079696 1762.135622603422, 1421.7059553508095 1758.1614286313445, 1420.961136623166 1754.1427463945902, 1420.4276602214002 1750.0905908218347, 1420.1069883672476 1746.0160685898416, 1419.9999999999707 1741.9303476808316)</t>
         </is>
       </c>
     </row>
@@ -748,11 +748,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>613</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1507.260937499971</v>
+        <v>1498.464062499971</v>
       </c>
       <c r="E7" t="n">
         <v>1819.99999999984</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>LINESTRING (1515.660937499971 1819.99999999984, 1498.860937499971 1819.99999999984)</t>
+          <t>LINESTRING (1498.860937499971 1819.99999999984, 1498.067187499971 1819.99999999984)</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7EF</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1893.149999999994</v>
+        <v>1507.260937499971</v>
       </c>
       <c r="E8" t="n">
-        <v>1819.999999999849</v>
+        <v>1819.99999999984</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>LINESTRING (1939.999999999994 1819.999999999849, 1846.299999999994 1819.999999999849)</t>
+          <t>LINESTRING (1515.660937499971 1819.99999999984, 1498.860937499971 1819.99999999984)</t>
         </is>
       </c>
     </row>
@@ -840,14 +840,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7F0</t>
+          <t>7EF</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1680.98046874998</v>
+        <v>1893.149999999994</v>
       </c>
       <c r="E9" t="n">
-        <v>1819.999999999848</v>
+        <v>1819.999999999849</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>LINESTRING (1515.660937499965 1819.999999999848, 1846.299999999994 1819.999999999849)</t>
+          <t>LINESTRING (1939.999999999994 1819.999999999849, 1846.299999999994 1819.999999999849)</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>7F0</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -932,14 +932,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>89C</t>
+          <t>895</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1248.383061694812</v>
+        <v>1680.98046874998</v>
       </c>
       <c r="E11" t="n">
-        <v>1574.999999999842</v>
+        <v>1819.999999999848</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LINESTRING (1608.383061694812 1574.999999999847, 888.383061694812 1574.999999999836)</t>
+          <t>LINESTRING (1515.660937499965 1819.999999999848, 1846.299999999994 1819.999999999849)</t>
         </is>
       </c>
     </row>
@@ -978,14 +978,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>89C</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2174.999999999997</v>
+        <v>1248.383061694812</v>
       </c>
       <c r="E12" t="n">
-        <v>1314.99999999984</v>
+        <v>1574.999999999842</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>LINESTRING (2174.999999999997 1314.99999999984, 2174.999999999998 1314.999999999841)</t>
+          <t>LINESTRING (1608.383061694812 1574.999999999847, 888.383061694812 1574.999999999836)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9FC</t>
+          <t>957</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1070,14 +1070,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9FD</t>
+          <t>9FC</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2275.000000000003</v>
+        <v>2174.999999999997</v>
       </c>
       <c r="E14" t="n">
-        <v>1314.999999999839</v>
+        <v>1314.99999999984</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>LINESTRING (2201.512499999997 1314.99999999984, 2348.487500000008 1314.999999999838)</t>
+          <t>LINESTRING (2174.999999999997 1314.99999999984, 2174.999999999998 1314.999999999841)</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AA5</t>
+          <t>9FD</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1162,11 +1162,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BFB</t>
+          <t>AA5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2375.000000000002</v>
+        <v>2275.000000000003</v>
       </c>
       <c r="E16" t="n">
         <v>1314.999999999839</v>
@@ -1191,31 +1191,31 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>LINESTRING (2375.000000000007 1314.999999999838, 2374.999999999997 1314.99999999984)</t>
+          <t>LINESTRING (2201.512499999997 1314.99999999984, 2348.487500000008 1314.999999999838)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA0</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2375.000000000002</v>
+        <v>2184.637974548132</v>
       </c>
       <c r="E17" t="n">
-        <v>1314.999999999839</v>
+        <v>809.637974548094</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>LINESTRING (2375.000000000007 1314.999999999838, 2374.999999999997 1314.99999999984)</t>
+          <t>LINESTRING (2175.000000000005 826.5124999999671, 2175.036334459824 825.1249429600759, 2175.1452382490534 823.7411891175834, 2175.326412869976 822.3650312455879, 2175.57936173555 821.0002412971612, 2175.903391530516 819.6505600666865, 2176.2976141117297 818.3196869366012, 2176.7609489424976 817.0112697376472, 2177.2921260542553 815.7288947504198, 2177.8896895274606 814.4760768756223, 2178.55200148217 813.256249999967, 2179.2772465673515 812.0727575841311, 2180.063436936639 810.9288434985629, 2180.9084176968768 809.8276431322582, 2181.809872814535 808.7721747988778, 2182.7653314637964 807.7653314637587, 2183.7721747989153 806.8098728144976, 2184.8276431322956 805.908417696839, 2185.9288434986006 805.0634369366012, 2187.072757584169 804.2772465673139, 2188.2562500000045 803.552001482132, 2189.47607687566 802.8896895274229, 2190.7288947504576 802.2921260542175, 2192.011269737685 801.7609489424599, 2193.319686936639 801.2976141116917, 2194.650560066724 800.903391530478, 2196.000241297199 800.5793617355118, 2197.3650312456257 800.3264128699383, 2198.7411891176207 800.1452382490155, 2200.1249429601135 800.0363344597862, 2201.5125000000044 799.9999999999668)</t>
         </is>
       </c>
     </row>
@@ -1254,14 +1254,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CA3</t>
+          <t>BFB</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2374.999999999998</v>
+        <v>2375.000000000002</v>
       </c>
       <c r="E18" t="n">
-        <v>1279.243749999838</v>
+        <v>1314.999999999839</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>LINESTRING (2374.999999999997 1288.48749999984, 2374.999999999999 1269.999999999836)</t>
+          <t>LINESTRING (2375.000000000007 1314.999999999838, 2374.999999999997 1314.99999999984)</t>
         </is>
       </c>
     </row>
@@ -1300,14 +1300,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D4A</t>
+          <t>CA0</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2374.999999999998</v>
+        <v>2375.000000000002</v>
       </c>
       <c r="E19" t="n">
-        <v>1279.243749999838</v>
+        <v>1314.999999999839</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1329,31 +1329,31 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>LINESTRING (2374.999999999997 1288.48749999984, 2374.999999999999 1269.999999999836)</t>
+          <t>LINESTRING (2375.000000000007 1314.999999999838, 2374.999999999997 1314.99999999984)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>CA2</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>519.8217601255571</v>
+        <v>2365.362025451876</v>
       </c>
       <c r="E20" t="n">
-        <v>1650.999999999852</v>
+        <v>809.6379745481445</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255571 1654.999999999853, 519.8217601255571 1646.999999999852)</t>
+          <t>LINESTRING (2348.487500000001 800.0000000000176, 2349.875057039892 800.036334459837, 2351.2588108823848 800.1452382490663, 2352.63496875438 800.3264128699891, 2353.999758702807 800.5793617355627, 2355.3494399332817 800.9033915305287, 2356.6803130633666 801.2976141117424, 2357.9887302623206 801.7609489425106, 2359.2711052495483 802.2921260542681, 2360.523923124346 802.8896895274735, 2361.743750000001 803.5520014821826, 2362.9272424158366 804.2772465673645, 2364.0711565014053 805.0634369366518, 2365.17235686771 805.9084176968896, 2366.22782520109 806.8098728145482, 2367.2346685362095 807.7653314638093, 2368.1901271854704 808.7721747989283, 2369.091582303129 809.8276431323087, 2369.936563063367 810.9288434986133, 2370.722753432654 812.0727575841817, 2371.447998517836 813.2562500000175, 2372.1103104725453 814.4760768756728, 2372.7078739457506 815.7288947504703, 2373.2390510575083 817.0112697376977, 2373.7023858882762 818.3196869366517, 2374.09660846949 819.650560066737, 2374.420638264456 821.0002412972117, 2374.67358713003 822.3650312456384, 2374.8547617509525 823.7411891176339, 2374.963665540182 825.1249429601264, 2375.000000000001 826.5125000000174)</t>
         </is>
       </c>
     </row>
@@ -1392,14 +1392,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>CA3</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>519.8217601255571</v>
+        <v>2374.999999999998</v>
       </c>
       <c r="E21" t="n">
-        <v>1642.999999999852</v>
+        <v>1279.243749999838</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255571 1646.999999999852, 519.8217601255571 1638.999999999852)</t>
+          <t>LINESTRING (2374.999999999997 1288.48749999984, 2374.999999999999 1269.999999999836)</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>D4A</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>519.8217601255571</v>
+        <v>2374.999999999998</v>
       </c>
       <c r="E22" t="n">
-        <v>1619.037558624733</v>
+        <v>1279.243749999838</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1467,31 +1467,31 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255571 1638.999999999853, 519.8217601255571 1599.075117249613)</t>
+          <t>LINESTRING (2374.999999999997 1288.48749999984, 2374.999999999999 1269.999999999836)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>D4C</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>519.8217601255562</v>
+        <v>1305.362025451705</v>
       </c>
       <c r="E23" t="n">
-        <v>1574.999999999846</v>
+        <v>940.362025451885</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255562 1574.999999999834, 519.8217601255564 1574.999999999858)</t>
+          <t>LINESTRING (1314.999999999832 923.4875000000117, 1314.9636655400125 924.8750570399027, 1314.8547617507834 926.2588108823953, 1314.6735871298606 927.6349687543908, 1314.420638264287 928.9997587028175, 1314.096608469321 930.3494399332923, 1313.702385888107 931.6803130633774, 1313.2390510573389 932.9887302623314, 1312.7078739455815 934.2711052495588, 1312.110310472376 935.5239231243564, 1311.4479985176667 936.7437500000117, 1310.722753432485 937.9272424158476, 1309.9365630631978 939.0711565014159, 1309.09158230296 940.1723568677205, 1308.1901271853014 941.2278252011009, 1307.2346685360403 942.2346685362199, 1306.2278252009212 943.1901271854811, 1305.1723568675407 944.0915823031396, 1304.0711565012361 944.9365630633774, 1302.927242415668 945.7227534326647, 1301.7437499998318 946.4479985178466, 1300.5239231241767 947.1103104725557, 1299.2711052493792 947.7078739457611, 1297.9887302621516 948.2390510575187, 1296.6803130631977 948.7023858882869, 1295.3494399331125 949.0966084695006, 1293.9997587026378 949.4206382644667, 1292.634968754211 949.6735871300402, 1291.2588108822156 949.854761750963, 1289.875057039723 949.9636655401923, 1288.487499999832 950.0000000000117)</t>
         </is>
       </c>
     </row>
@@ -1530,14 +1530,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>519.8217601255565</v>
+        <v>519.8217601255571</v>
       </c>
       <c r="E24" t="n">
-        <v>1574.99999999991</v>
+        <v>1650.999999999852</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255562 1574.999999999858, 519.8217601255566 1574.999999999961)</t>
+          <t>LINESTRING (519.8217601255571 1654.999999999853, 519.8217601255571 1646.999999999852)</t>
         </is>
       </c>
     </row>
@@ -1576,14 +1576,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>156A</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>519.8217601255567</v>
+        <v>519.8217601255571</v>
       </c>
       <c r="E25" t="n">
-        <v>1574.999999999881</v>
+        <v>1642.999999999852</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255566 1574.999999999881, 519.8217601255568 1574.999999999881)</t>
+          <t>LINESTRING (519.8217601255571 1646.999999999852, 519.8217601255571 1638.999999999852)</t>
         </is>
       </c>
     </row>
@@ -1622,14 +1622,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>156B</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>519.8217601255487</v>
+        <v>519.8217601255571</v>
       </c>
       <c r="E26" t="n">
-        <v>1752.884638868068</v>
+        <v>1619.037558624733</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255487 1850.769277736276, 519.8217601255487 1654.999999999859)</t>
+          <t>LINESTRING (519.8217601255571 1638.999999999853, 519.8217601255571 1599.075117249613)</t>
         </is>
       </c>
     </row>
@@ -1668,14 +1668,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>519.8217601255487</v>
+        <v>519.8217601255562</v>
       </c>
       <c r="E27" t="n">
-        <v>1752.884638868068</v>
+        <v>1574.999999999846</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255487 1850.769277736276, 519.8217601255487 1654.999999999859)</t>
+          <t>LINESTRING (519.8217601255562 1574.999999999834, 519.8217601255564 1574.999999999858)</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1B79</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>519.8217601255487</v>
+        <v>519.8217601255565</v>
       </c>
       <c r="E28" t="n">
-        <v>1899.540371486276</v>
+        <v>1574.99999999991</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255488 1899.540371486276, 519.8217601255487 1899.540371486276)</t>
+          <t>LINESTRING (519.8217601255562 1574.999999999858, 519.8217601255566 1574.999999999961)</t>
         </is>
       </c>
     </row>
@@ -1760,14 +1760,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1C20</t>
+          <t>156A</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>519.8217601255487</v>
+        <v>519.8217601255567</v>
       </c>
       <c r="E29" t="n">
-        <v>1899.540371486276</v>
+        <v>1574.999999999881</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255488 1899.540371486276, 519.8217601255487 1899.540371486276)</t>
+          <t>LINESTRING (519.8217601255566 1574.999999999881, 519.8217601255568 1574.999999999881)</t>
         </is>
       </c>
     </row>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>156B</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>519.8217601255488</v>
+        <v>519.8217601255487</v>
       </c>
       <c r="E30" t="n">
-        <v>1899.54037148627</v>
+        <v>1752.884638868068</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255488 1899.54037148627, 519.8217601255488 1899.54037148627)</t>
+          <t>LINESTRING (519.8217601255487 1850.769277736276, 519.8217601255487 1654.999999999859)</t>
         </is>
       </c>
     </row>
@@ -1852,14 +1852,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>519.8217601255488</v>
+        <v>519.8217601255487</v>
       </c>
       <c r="E31" t="n">
-        <v>1899.54037148627</v>
+        <v>1752.884638868068</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255488 1899.54037148627, 519.8217601255488 1899.54037148627)</t>
+          <t>LINESTRING (519.8217601255487 1850.769277736276, 519.8217601255487 1654.999999999859)</t>
         </is>
       </c>
     </row>
@@ -1898,14 +1898,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>1B79</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>519.8217601255488</v>
+        <v>519.8217601255487</v>
       </c>
       <c r="E32" t="n">
-        <v>1860.46615273627</v>
+        <v>1899.540371486276</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255488 1860.06927773627, 519.8217601255488 1860.86302773627)</t>
+          <t>LINESTRING (519.8217601255488 1899.540371486276, 519.8217601255487 1899.540371486276)</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1944,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1C20</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>519.8217601255488</v>
+        <v>519.8217601255487</v>
       </c>
       <c r="E33" t="n">
-        <v>1855.41927773627</v>
+        <v>1899.540371486276</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>LINESTRING (519.8217601255488 1850.76927773627, 519.8217601255488 1860.06927773627)</t>
+          <t>LINESTRING (519.8217601255488 1899.540371486276, 519.8217601255487 1899.540371486276)</t>
         </is>
       </c>
     </row>
@@ -1990,14 +1990,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>445.0000353665115</v>
+        <v>519.8217601255488</v>
       </c>
       <c r="E34" t="n">
-        <v>1866.406260257139</v>
+        <v>1899.54037148627</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>LINESTRING (445.0000353665074 1887.812511804568, 445.0000353665156 1845.000008709711)</t>
+          <t>LINESTRING (519.8217601255488 1899.54037148627, 519.8217601255488 1899.54037148627)</t>
         </is>
       </c>
     </row>
@@ -2036,14 +2036,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21AE</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>445.0000353665115</v>
+        <v>519.8217601255488</v>
       </c>
       <c r="E35" t="n">
-        <v>1866.406260257139</v>
+        <v>1899.54037148627</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2065,31 +2065,31 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LINESTRING (445.0000353665074 1887.812511804568, 445.0000353665156 1845.000008709711)</t>
+          <t>LINESTRING (519.8217601255488 1899.54037148627, 519.8217601255488 1899.54037148627)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21AF</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>595.0000306714858</v>
+        <v>-1885.480163861502</v>
       </c>
       <c r="E36" t="n">
-        <v>1866.40625870298</v>
+        <v>500.9397923752241</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000306720268 1887.812508712282, 595.0000306709446 1845.000008693678)</t>
+          <t>LINESTRING (-1860.8630277362684 514.9999999999916, -1862.8872435063618 514.9469940445969, -1864.9059110417306 514.788121464052, -1866.913497314977 514.523817717057, -1868.904499671671 514.154807241811, -1870.8734609127457 513.682101470377, -1872.8149842523005 513.1069960564171, -1874.7237481098152 512.4310673238958, -1876.5945206962328 511.65616794648594, -1878.42217435393 510.7844218695182, -1880.201699611269 509.8182184883953, -1881.9282189132136 508.760206099425, -1883.596999990366 507.6132846410237, -1885.2034688297883 506.3805977451876, -1886.743222212057 505.06552412101496, -1888.2120397801777 503.67166829390015, -1889.6058956072927 502.20285072577946, -1890.9209692314653 500.6630973435109, -1892.1536561273015 499.05662850408834, -1893.3005775857027 497.38784742693633, -1894.3585899746731 495.6613281249918, -1895.3247933557961 493.8818028676525, -1896.196539432764 492.0541492099555, -1896.971438810174 490.18337662353787, -1897.6473675426953 488.2746127660232, -1898.2224729566553 486.3330894264684, -1898.6951787280893 484.3641281853936, -1899.0641892033354 482.3731258286997, -1899.3284929503304 480.36553955545355, -1899.4873655308754 478.3468720200845, -1899.5403714862703 476.3226562499911)</t>
         </is>
       </c>
     </row>
@@ -2128,14 +2128,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>595.0000306714858</v>
+        <v>519.8217601255488</v>
       </c>
       <c r="E37" t="n">
-        <v>1866.40625870298</v>
+        <v>1860.46615273627</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000306720268 1887.812508712282, 595.0000306709446 1845.000008693678)</t>
+          <t>LINESTRING (519.8217601255488 1860.06927773627, 519.8217601255488 1860.86302773627)</t>
         </is>
       </c>
     </row>
@@ -2174,14 +2174,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>445.000027591684</v>
+        <v>519.8217601255488</v>
       </c>
       <c r="E38" t="n">
-        <v>1915.000011566013</v>
+        <v>1855.41927773627</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>LINESTRING (445.0000198168607 1915.000011327457, 445.0000353665074 1915.000011804568)</t>
+          <t>LINESTRING (519.8217601255488 1850.76927773627, 519.8217601255488 1860.06927773627)</t>
         </is>
       </c>
     </row>
@@ -2220,14 +2220,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>445.000027591684</v>
+        <v>445.0000353665115</v>
       </c>
       <c r="E39" t="n">
-        <v>1915.000011566013</v>
+        <v>1866.406260257139</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LINESTRING (445.0000198168607 1915.000011327457, 445.0000353665074 1915.000011804568)</t>
+          <t>LINESTRING (445.0000353665074 1887.812511804568, 445.0000353665156 1845.000008709711)</t>
         </is>
       </c>
     </row>
@@ -2266,14 +2266,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2316</t>
+          <t>21AE</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>595.0000226620145</v>
+        <v>445.0000353665115</v>
       </c>
       <c r="E40" t="n">
-        <v>1915.000008712289</v>
+        <v>1866.406260257139</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000146519985 1915.000008712285, 595.0000306720307 1915.000008712294)</t>
+          <t>LINESTRING (445.0000353665074 1887.812511804568, 445.0000353665156 1845.000008709711)</t>
         </is>
       </c>
     </row>
@@ -2312,14 +2312,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23D6</t>
+          <t>21AF</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>595.0000226620145</v>
+        <v>595.0000306714858</v>
       </c>
       <c r="E41" t="n">
-        <v>1915.000008712289</v>
+        <v>1866.40625870298</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000146519985 1915.000008712285, 595.0000306720307 1915.000008712294)</t>
+          <t>LINESTRING (595.0000306720268 1887.812508712282, 595.0000306709446 1845.000008693678)</t>
         </is>
       </c>
     </row>
@@ -2358,14 +2358,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23D7</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1054.998289928661</v>
+        <v>595.0000306714858</v>
       </c>
       <c r="E42" t="n">
-        <v>1914.998183760102</v>
+        <v>1866.40625870298</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>LINESTRING (1055.000000549723 1914.999999999854, 1054.996579307598 1914.99636752035)</t>
+          <t>LINESTRING (595.0000306720268 1887.812508712282, 595.0000306709446 1845.000008693678)</t>
         </is>
       </c>
     </row>
@@ -2404,14 +2404,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>247E</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1054.998289928661</v>
+        <v>445.000027591684</v>
       </c>
       <c r="E43" t="n">
-        <v>1914.998183760102</v>
+        <v>1915.000011566013</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>LINESTRING (1055.000000549723 1914.999999999854, 1054.996579307598 1914.99636752035)</t>
+          <t>LINESTRING (445.0000198168607 1915.000011327457, 445.0000353665074 1915.000011804568)</t>
         </is>
       </c>
     </row>
@@ -2450,14 +2450,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>247F</t>
+          <t>2315</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1055.000000549729</v>
+        <v>445.000027591684</v>
       </c>
       <c r="E44" t="n">
-        <v>1853.90624999986</v>
+        <v>1915.000011566013</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>LINESTRING (1055.000000549728 1887.812499999861, 1055.00000054973 1819.99999999986)</t>
+          <t>LINESTRING (445.0000198168607 1915.000011327457, 445.0000353665074 1915.000011804568)</t>
         </is>
       </c>
     </row>
@@ -2496,14 +2496,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1055.000000549729</v>
+        <v>595.0000226620145</v>
       </c>
       <c r="E45" t="n">
-        <v>1853.90624999986</v>
+        <v>1915.000008712289</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>LINESTRING (1055.000000549728 1887.812499999861, 1055.00000054973 1819.99999999986)</t>
+          <t>LINESTRING (595.0000146519985 1915.000008712285, 595.0000306720307 1915.000008712294)</t>
         </is>
       </c>
     </row>
@@ -2542,14 +2542,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>23D6</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2375.000000034824</v>
+        <v>595.0000226620145</v>
       </c>
       <c r="E46" t="n">
-        <v>819.999999996495</v>
+        <v>1915.000008712289</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>LINESTRING (2375.000000000005 819.9999999998352, 2375.000000069643 819.999999993155)</t>
+          <t>LINESTRING (595.0000146519985 1915.000008712285, 595.0000306720307 1915.000008712294)</t>
         </is>
       </c>
     </row>
@@ -2588,14 +2588,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>25D1</t>
+          <t>23D7</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2375.000000034824</v>
+        <v>1054.998289928661</v>
       </c>
       <c r="E47" t="n">
-        <v>819.999999996495</v>
+        <v>1914.998183760102</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>LINESTRING (2375.000000000005 819.9999999998352, 2375.000000069643 819.999999993155)</t>
+          <t>LINESTRING (1055.000000549723 1914.999999999854, 1054.996579307598 1914.99636752035)</t>
         </is>
       </c>
     </row>
@@ -2634,14 +2634,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>25D2</t>
+          <t>247E</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2175.000000023496</v>
+        <v>1054.998289928661</v>
       </c>
       <c r="E48" t="n">
-        <v>1315.000050779625</v>
+        <v>1914.998183760102</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>LINESTRING (2175.000000046998 1315.00012063213, 2174.999999999994 1314.999980927121)</t>
+          <t>LINESTRING (1055.000000549723 1914.999999999854, 1054.996579307598 1914.99636752035)</t>
         </is>
       </c>
     </row>
@@ -2680,14 +2680,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>247F</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2175.000000023496</v>
+        <v>1055.000000549729</v>
       </c>
       <c r="E49" t="n">
-        <v>1315.000050779625</v>
+        <v>1853.90624999986</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>LINESTRING (2175.000000046998 1315.00012063213, 2174.999999999994 1314.999980927121)</t>
+          <t>LINESTRING (1055.000000549728 1887.812499999861, 1055.00000054973 1819.99999999986)</t>
         </is>
       </c>
     </row>
@@ -2726,14 +2726,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>140.0000000000027</v>
+        <v>1055.000000549729</v>
       </c>
       <c r="E50" t="n">
-        <v>857.9221727750466</v>
+        <v>1853.90624999986</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>LINESTRING (140.0000000000027 945.3124847481632, 140.0000000000027 770.53186080193)</t>
+          <t>LINESTRING (1055.000000549728 1887.812499999861, 1055.00000054973 1819.99999999986)</t>
         </is>
       </c>
     </row>
@@ -2772,14 +2772,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>29BE</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>140.0000000000027</v>
+        <v>2375.000000034824</v>
       </c>
       <c r="E51" t="n">
-        <v>857.9221727750466</v>
+        <v>819.999999996495</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>LINESTRING (140.0000000000027 945.3124847481632, 140.0000000000027 770.53186080193)</t>
+          <t>LINESTRING (2375.000000000005 819.9999999998352, 2375.000000069643 819.999999993155)</t>
         </is>
       </c>
     </row>
@@ -2818,14 +2818,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>29BF</t>
+          <t>25D1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>220.0000000000029</v>
+        <v>2375.000000034824</v>
       </c>
       <c r="E52" t="n">
-        <v>795.5318677663992</v>
+        <v>819.999999996495</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>LINESTRING (220.0000000000029 820.5318608023949, 220.0000000000029 770.5318747304034)</t>
+          <t>LINESTRING (2375.000000000005 819.9999999998352, 2375.000000069643 819.999999993155)</t>
         </is>
       </c>
     </row>
@@ -2864,14 +2864,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2A67</t>
+          <t>25D2</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>220.0000000000029</v>
+        <v>2175.000000023496</v>
       </c>
       <c r="E53" t="n">
-        <v>795.5318677663992</v>
+        <v>1315.000050779625</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>LINESTRING (220.0000000000029 820.5318608023949, 220.0000000000029 770.5318747304034)</t>
+          <t>LINESTRING (2175.000000046998 1315.00012063213, 2174.999999999994 1314.999980927121)</t>
         </is>
       </c>
     </row>
@@ -2910,14 +2910,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2A68</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2055.003132262135</v>
+        <v>2175.000000023496</v>
       </c>
       <c r="E54" t="n">
-        <v>1268.389723076606</v>
+        <v>1315.000050779625</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2939,31 +2939,31 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>LINESTRING (2055.003132262135 1249.687495863406, 2055.003132262135 1287.091950289805)</t>
+          <t>LINESTRING (2175.000000046998 1315.00012063213, 2174.999999999994 1314.999980927121)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2B11</t>
+          <t>27C8</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2055.003132262135</v>
+        <v>1905.116657423536</v>
       </c>
       <c r="E55" t="n">
-        <v>1268.389723076606</v>
+        <v>559.88335438105</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2985,31 +2985,31 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>LINESTRING (2055.003132262135 1249.687495863406, 2055.003132262135 1287.091950289805)</t>
+          <t>LINESTRING (1887.8125118045707 550.0000000000149, 1889.235395614926 550.0372595238749, 1890.6543793996602 550.14893596969, 1892.065573822852 550.3347232400846, 1893.4651108986786 550.5941121050645, 1894.8491545932957 550.9263915977808, 1896.2139113391397 551.3306509632404, 1897.5556404328336 551.8057821546222, 1898.8706642881941 552.3504828703566, 1900.1553785162398 552.9632601236435, 1901.4062618045707 553.6424343346254, 1902.6198855690418 554.3861439339986, 1903.7929233512725 555.1923504654459, 1904.9221599362384 556.0588441729034, 1906.0045001649523 556.9832500573482, 1907.0369774180801 557.9630343865056, 1908.0167617472375 558.9955116396333, 1908.9411676316822 560.0778518683474, 1909.8076613391397 561.2070884533132, 1910.613867870587 562.3801262355437, 1911.3575774699602 563.5937500000148, 1912.0367516809422 564.8446332883458, 1912.649528934229 566.1293475163915, 1913.1942296499635 567.4443713717519, 1913.6693608413455 568.7861004654459, 1914.073620206805 570.1508572112899, 1914.4058996995213 571.5349009059069, 1914.6652885645012 572.9344379817335, 1914.851075834896 574.3456324049254, 1914.962752280711 575.7646161896597, 1915.000011804571 577.1875000000147)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>2917</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2294.993990819991</v>
+        <v>1905.116654331248</v>
       </c>
       <c r="E56" t="n">
-        <v>1217.499435687621</v>
+        <v>559.8832179985617</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>LINESTRING (2294.993990819991 1285.311371370107, 2294.993990819991 1149.687500005135)</t>
+          <t>LINESTRING (1887.8125087122837 549.9998636175264, 1889.235392522639 550.0371231413865, 1890.6543763073732 550.1487995872016, 1892.065570730565 550.3345868575962, 1893.4651078063916 550.593975722576, 1894.8491515010087 550.9262552152924, 1896.2139082468527 551.3305145807519, 1897.5556373405466 551.8056457721337, 1898.8706611959071 552.3503464878681, 1900.1553754239528 552.9631237411551, 1901.4062587122837 553.6422979521369, 1902.6198824767548 554.3860075515101, 1903.7929202589855 555.1922140829574, 1904.9221568439514 556.0587077904149, 1906.0044970726653 556.9831136748596, 1907.0369743257932 557.9628980040171, 1908.0167586549505 558.9953752571448, 1908.9411645393952 560.0777154858589, 1909.8076582468527 561.2069520708247, 1910.6138647783 562.3799898530552, 1911.3575743776732 563.5936136175263, 1912.0367485886552 564.8444969058573, 1912.649525841942 566.129211133903, 1913.1942265576765 567.4442349892635, 1913.6693577490585 568.7859640829574, 1914.073617114518 570.1507208288015, 1914.4058966072344 571.5347645234184, 1914.6652854722142 572.934301599245, 1914.851072742609 574.3454960224369, 1914.962749188424 575.7644798071713, 1915.000008712284 577.1873636175262)</t>
         </is>
       </c>
     </row>
@@ -3048,14 +3048,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>32B5</t>
+          <t>2918</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2294.993990819991</v>
+        <v>140.0000000000027</v>
       </c>
       <c r="E57" t="n">
-        <v>1217.499435687621</v>
+        <v>857.9221727750466</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>LINESTRING (2294.993990819991 1285.311371370107, 2294.993990819991 1149.687500005135)</t>
+          <t>LINESTRING (140.0000000000027 945.3124847481632, 140.0000000000027 770.53186080193)</t>
         </is>
       </c>
     </row>
@@ -3094,14 +3094,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>32B6</t>
+          <t>29BE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2248.487681320686</v>
+        <v>140.0000000000027</v>
       </c>
       <c r="E58" t="n">
-        <v>1315.00001028431</v>
+        <v>857.9221727750466</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>LINESTRING (2231.662033917726 1315.000000407357, 2265.313328723645 1315.000020161262)</t>
+          <t>LINESTRING (140.0000000000027 945.3124847481632, 140.0000000000027 770.53186080193)</t>
         </is>
       </c>
     </row>
@@ -3140,14 +3140,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>335E</t>
+          <t>29BF</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2248.487681320686</v>
+        <v>220.0000000000029</v>
       </c>
       <c r="E59" t="n">
-        <v>1315.00001028431</v>
+        <v>795.5318677663992</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>LINESTRING (2231.662033917726 1315.000000407357, 2265.313328723645 1315.000020161262)</t>
+          <t>LINESTRING (220.0000000000029 820.5318608023949, 220.0000000000029 770.5318747304034)</t>
         </is>
       </c>
     </row>
@@ -3186,14 +3186,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>335F</t>
+          <t>2A67</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2294.997409771818</v>
+        <v>220.0000000000029</v>
       </c>
       <c r="E60" t="n">
-        <v>1314.999418431059</v>
+        <v>795.5318677663992</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>LINESTRING (2294.993990819991 1314.998836454758, 2295.000828723645 1315.00000040736)</t>
+          <t>LINESTRING (220.0000000000029 820.5318608023949, 220.0000000000029 770.5318747304034)</t>
         </is>
       </c>
     </row>
@@ -3232,14 +3232,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>2A68</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2294.997409771818</v>
+        <v>2055.003132262135</v>
       </c>
       <c r="E61" t="n">
-        <v>1314.999418431059</v>
+        <v>1268.389723076606</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>LINESTRING (2294.993990819991 1314.998836454758, 2295.000828723645 1315.00000040736)</t>
+          <t>LINESTRING (2055.003132262135 1249.687495863406, 2055.003132262135 1287.091950289805)</t>
         </is>
       </c>
     </row>
@@ -3278,14 +3278,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>365C</t>
+          <t>2B11</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2102.343749995694</v>
+        <v>2055.003132262135</v>
       </c>
       <c r="E62" t="n">
-        <v>1314.999999999838</v>
+        <v>1268.389723076606</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3307,31 +3307,31 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>LINESTRING (2119.999999999996 1314.999999999842, 2084.687499991392 1314.999999999833)</t>
+          <t>LINESTRING (2055.003132262135 1249.687495863406, 2055.003132262135 1287.091950289805)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>2D66</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2102.343749995694</v>
+        <v>2019.166711345793</v>
       </c>
       <c r="E63" t="n">
-        <v>1314.999999999838</v>
+        <v>1254.538150261212</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -3353,31 +3353,31 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>LINESTRING (2119.999999999996 1314.999999999842, 2084.687499991392 1314.999999999833)</t>
+          <t>LINESTRING (2025.4536358224689 1218.563725997428, 2020.8094876746848 1218.9292283807677, 2016.279693865703 1220.0167356492052, 2011.9757929510245 1221.799469764946, 2008.0037612534775 1224.2335338981347, 2004.4614033744697 1227.2589933124762, 2001.4359439201435 1230.8013511573336, 1999.0018797421199 1234.7733828274058, 1997.2191455777984 1239.0772837219613, 1996.1316382582302 1243.607077518668, 1995.766135822469 1248.2512256623265, 1996.1316381533873 1252.8953738142363, 1997.2191453706942 1257.4251676354936, 1999.001879437854 1261.7290685702947, 2001.435943526208 1265.7011002953168, 2004.4614029005645 1269.2434582084747, 2008.0037607112715 1272.2689177027858, 2011.975792353869 1274.702981925644, 2016.2796932283018 1276.4857161385466, 2020.809487012733 1277.5732235092455, 2025.4536351522659 1277.938725997428, 2030.0977833083014 1277.5732237189313, 2034.6275771418339 1276.485716552755, 2038.931478096758 1274.702982534176, 2042.9035098492548 1272.2689184906571, 2046.445867796563 1269.2434591562853, 2049.471327330859 1265.7011013797285, 2051.9053915985523 1261.7290697646058, 2053.6881258600356 1257.4251689102962, 2054.775633281865 1252.8953751381405, 2055.141135822469 1248.2512270027332)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>2FBA</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2055.00439409599</v>
+        <v>1280.778664506902</v>
       </c>
       <c r="E64" t="n">
-        <v>1315.879636369216</v>
+        <v>2403.950352781126</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3399,31 +3399,31 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>LINESTRING (2055.008788216008 1316.761873250232, 2054.999999975973 1314.9973994882)</t>
+          <t>LINESTRING (1316.7618732502242 2410.197115262258, 1316.3906321549498 2405.5540852156487, 1315.2977328277168 2401.0262690726195, 1313.5100784430058 2396.7251250660365, 1311.0716744975953 2392.756531591826, 1308.0425455565692 2389.218180871055, 1304.4972576685973 2386.197174125624, 1300.523082823202 2383.767877465525, 1296.2178506343455 2381.990091267869, 1291.6875401340133 2380.907578110849, 1287.0436709570024 2380.546985499515, 1282.400558136383 2380.9171899018975, 1277.8724980865052 2382.00907824291, 1273.570955044326 2383.7957722348465, 1269.6018172285656 2386.2332900222773, 1266.0627902599842 2389.2616288540785, 1263.0409920072234 2392.806242131173, 1260.6108080642846 2396.7798744704846, 1258.832060649929 2401.0847096125617, 1257.7485360039805 2405.6147782992557, 1257.3869065306378 2410.258566848334, 1257.7560742216726 2414.90176221149, 1258.8469515220315 2419.4300659424807, 1260.6326850321216 2423.7320078058124, 1263.0693165400553 2427.70168976525, 1266.0968651116605 2431.2413928052115, 1269.6408036011683 2434.2639824146568, 1273.6138932362996 2436.6950535192836, 1277.91833111699 2438.4747620616636, 1282.4481577642089 2439.559298142524, 1287.0918654538486 2439.921964459847)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>37AD</t>
+          <t>320F</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2055.00439409599</v>
+        <v>1304.206677561536</v>
       </c>
       <c r="E65" t="n">
-        <v>1315.879636369216</v>
+        <v>2459.109972077215</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>LINESTRING (2055.008788216008 1316.761873250232, 2054.999999975973 1314.9973994882)</t>
+          <t>LINESTRING (1314.9988364547487 2440.2146602289477, 1314.9581498498158 2441.768382096964, 1314.836203579174 2443.317845278214, 1314.633331888297 2444.8588028117024, 1314.3500908330943 2446.3870310497678, 1313.9872567558039 2447.898341234783, 1313.545824157097 2449.388590980219, 1313.0270029702278 2450.8536956246144, 1312.432215244698 2452.289639427321, 1311.7630912485263 2453.692486575346, 1311.0214649998086 2455.058391971113, 1310.2093692398128 2456.3836117715878, 1309.3290298613895 2457.6645136498637, 1308.3828598079688 2458.8975867510962, 1307.3734524598651 2460.0794513154888, 1306.3035745260186 2461.206867941959, 1305.176158460656 2462.27674646709, 1303.9942944256568 2463.286154435034, 1302.7612218206523 2464.2323251351513, 1301.480320404079 2465.1126651853556, 1300.155101029516 2465.924761640376, 1298.7891960227018 2466.6663886054553, 1297.386349225606 2467.3355133373634, 1295.9504057348413 2467.930301815988, 1294.4853013625468 2468.449123771245, 1292.9950518486246 2468.8905571515274, 1291.4837418539016 2469.253392021439, 1289.9555137643847 2469.5366338781355, 1288.4145563372947 2469.7395063771824, 1286.8650932200007 2469.861453460455, 1285.311371373323 2469.9021408802523)</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3462,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3A03</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1104.998156767408</v>
+        <v>2294.993990819991</v>
       </c>
       <c r="E66" t="n">
-        <v>1914.99815501163</v>
+        <v>1217.499435687621</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>LINESTRING (1104.996312755496 1914.996310023417, 1105.00000077932 1914.999999999843)</t>
+          <t>LINESTRING (2294.993990819991 1285.311371370107, 2294.993990819991 1149.687500005135)</t>
         </is>
       </c>
     </row>
@@ -3508,14 +3508,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3AA9</t>
+          <t>32B5</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1104.998156767408</v>
+        <v>2294.993990819991</v>
       </c>
       <c r="E67" t="n">
-        <v>1914.99815501163</v>
+        <v>1217.499435687621</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>LINESTRING (1104.996312755496 1914.996310023417, 1105.00000077932 1914.999999999843)</t>
+          <t>LINESTRING (2294.993990819991 1285.311371370107, 2294.993990819991 1149.687500005135)</t>
         </is>
       </c>
     </row>
@@ -3554,14 +3554,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3AAA</t>
+          <t>32B6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1947.496995410136</v>
+        <v>2248.487681320686</v>
       </c>
       <c r="E68" t="n">
-        <v>1120.000000001525</v>
+        <v>1315.00001028431</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>LINESTRING (2265.306490820552 1120.000000005193, 1629.687499999719 1119.999999997858)</t>
+          <t>LINESTRING (2231.662033917726 1315.000000407357, 2265.313328723645 1315.000020161262)</t>
         </is>
       </c>
     </row>
@@ -3600,14 +3600,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3B51</t>
+          <t>335E</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1947.496995410136</v>
+        <v>2248.487681320686</v>
       </c>
       <c r="E69" t="n">
-        <v>1120.000000001525</v>
+        <v>1315.00001028431</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>LINESTRING (2265.306490820552 1120.000000005193, 1629.687499999719 1119.999999997858)</t>
+          <t>LINESTRING (2231.662033917726 1315.000000407357, 2265.313328723645 1315.000020161262)</t>
         </is>
       </c>
     </row>
@@ -3646,14 +3646,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3B52</t>
+          <t>335F</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1104.996267636654</v>
+        <v>2294.997409771818</v>
       </c>
       <c r="E70" t="n">
-        <v>1772.457530011611</v>
+        <v>1314.999418431059</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>LINESTRING (1104.996267103788 1888.483810023381, 1104.996268169519 1656.431249999841)</t>
+          <t>LINESTRING (2294.993990819991 1314.998836454758, 2295.000828723645 1315.00000040736)</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3C10</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1104.996267636654</v>
+        <v>2294.997409771818</v>
       </c>
       <c r="E71" t="n">
-        <v>1772.457530011611</v>
+        <v>1314.999418431059</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3721,31 +3721,31 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>LINESTRING (1104.996267103788 1888.483810023381, 1104.996268169519 1656.431249999841)</t>
+          <t>LINESTRING (2294.993990819991 1314.998836454758, 2295.000828723645 1315.00000040736)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3C11</t>
+          <t>365B</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1105.000000779319</v>
+        <v>2284.208660146645</v>
       </c>
       <c r="E72" t="n">
-        <v>1769.243749999841</v>
+        <v>1015.221935344736</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>LINESTRING (1105.00000077932 1888.487499999843, 1105.000000779318 1649.999999999839)</t>
+          <t>LINESTRING (2265.313328723639 1004.429766767744, 2266.8670524246013 1004.4704524547176, 2268.4165174768973 1004.5923979989984, 2269.9574769045207 1004.7952691563258, 2271.485707044791 1005.0785098709591, 2272.99701912512 1005.4413437997873, 2274.4872707441455 1005.8827764402316, 2275.9523772257653 1006.4015978561083, 2277.388322814952 1006.9963859939793, 2278.791171684657 1007.6655105809018, 2280.157078723639 1008.4071375928934, 2281.482300075648 1009.2192342818641, 2282.7632034010717 1010.0995747472376, 2283.996277832931 1011.0457460369901, 2285.178143599918 1012.0551547613837, 2286.305561290115 1013.1250342012682, 2287.3754407299994 1014.2524518914653, 2288.3848494543927 1015.4343176584518, 2289.3310207441455 1016.6673920903111, 2290.211361209519 1017.9482954157353, 2291.0234578984896 1019.2735167677439, 2291.765084910481 1020.6394238067261, 2292.434209497404 1022.042272676431, 2293.0289976352747 1023.4782182656178, 2293.5478190511517 1024.9433247472375, 2293.9892516915957 1026.4335763662627, 2294.352085620424 1027.9448884465917, 2294.6353263350575 1029.473118586862, 2294.838197492385 1031.0140780144854, 2294.9601430366656 1032.5635430667814, 2295.000828723639 1034.1172667677438)</t>
         </is>
       </c>
     </row>
@@ -3784,14 +3784,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3CB6</t>
+          <t>365C</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1105.000000779319</v>
+        <v>2102.343749995694</v>
       </c>
       <c r="E73" t="n">
-        <v>1769.243749999841</v>
+        <v>1314.999999999838</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>LINESTRING (1105.00000077932 1888.487499999843, 1105.000000779318 1649.999999999839)</t>
+          <t>LINESTRING (2119.999999999996 1314.999999999842, 2084.687499991392 1314.999999999833)</t>
         </is>
       </c>
     </row>
@@ -3830,14 +3830,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3F9C</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1055.000000549725</v>
+        <v>2102.343749995694</v>
       </c>
       <c r="E74" t="n">
-        <v>1914.999999999858</v>
+        <v>1314.999999999838</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>LINESTRING (1055.000000549728 1914.999999999861, 1055.000000549723 1914.999999999854)</t>
+          <t>LINESTRING (2119.999999999996 1314.999999999842, 2084.687499991392 1314.999999999833)</t>
         </is>
       </c>
     </row>
@@ -3876,14 +3876,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3F9D</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>595.0000146519458</v>
+        <v>2055.00439409599</v>
       </c>
       <c r="E75" t="n">
-        <v>1772.459431095384</v>
+        <v>1315.879636369216</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000146520006 1888.487612191205, 595.0000146518909 1656.431249999564)</t>
+          <t>LINESTRING (2055.008788216008 1316.761873250232, 2054.999999975973 1314.9973994882)</t>
         </is>
       </c>
     </row>
@@ -3922,14 +3922,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>37AD</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>595.0000146519458</v>
+        <v>2055.00439409599</v>
       </c>
       <c r="E76" t="n">
-        <v>1772.459431095384</v>
+        <v>1315.879636369216</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3951,31 +3951,31 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000146520006 1888.487612191205, 595.0000146518909 1656.431249999564)</t>
+          <t>LINESTRING (2055.008788216008 1316.761873250232, 2054.999999975973 1314.9973994882)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>3A02</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>595.0000306720278</v>
+        <v>-2065.792168568382</v>
       </c>
       <c r="E77" t="n">
-        <v>1915.000008712291</v>
+        <v>1017.099462755817</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000306720251 1915.000008712288, 595.0000306720307 1915.000008712294)</t>
+          <t>LINESTRING (-2084.68749999139 1006.307294178825, -2083.1337762904277 1006.3479798657986, -2081.5843112381317 1006.4699254100794, -2080.0433518105083 1006.6727965674069, -2078.515121670238 1006.9560372820401, -2077.003809589909 1007.3188712108683, -2075.5135579708835 1007.7603038513126, -2074.0484514892637 1008.2791252671893, -2072.612505900077 1008.8739134050603, -2071.209657030372 1009.5430379919828, -2069.84374999139 1010.2846650039744, -2068.518528639381 1011.0967616929452, -2067.2376253139573 1011.9771021583186, -2066.004550882098 1012.9232734480711, -2064.822685115111 1013.9326821724648, -2063.695267424914 1015.0025616123493, -2062.6253879850296 1016.1299793025463, -2061.6159792606363 1017.3118450695329, -2060.6698079708835 1018.5449195013921, -2059.78946750551 1019.8258228268163, -2058.9773708165394 1021.1510441788249, -2058.235743804548 1022.5169512178071, -2057.566619217625 1023.919800087512, -2056.9718310797543 1025.3557456766987, -2056.4530096638773 1026.8208521583185, -2056.0115770234333 1028.3111037773438, -2055.648743094605 1029.8224158576727, -2055.3655023799715 1031.350645997943, -2055.162631222644 1032.8916054255665, -2055.0406856783634 1034.4410704778625, -2054.99999999139 1035.9947941788248)</t>
         </is>
       </c>
     </row>
@@ -4014,14 +4014,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>3A03</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1867.501556331323</v>
+        <v>1104.998156767408</v>
       </c>
       <c r="E78" t="n">
-        <v>1219.99999999984</v>
+        <v>1914.99815501163</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>LINESTRING (2025.315631321405 1219.999999999845, 1709.687481341242 1219.999999999836)</t>
+          <t>LINESTRING (1104.996312755496 1914.996310023417, 1105.00000077932 1914.999999999843)</t>
         </is>
       </c>
     </row>
@@ -4060,14 +4060,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>412C</t>
+          <t>3AA9</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1867.501556331323</v>
+        <v>1104.998156767408</v>
       </c>
       <c r="E79" t="n">
-        <v>1219.99999999984</v>
+        <v>1914.99815501163</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>LINESTRING (2025.315631321405 1219.999999999845, 1709.687481341242 1219.999999999836)</t>
+          <t>LINESTRING (1104.996312755496 1914.996310023417, 1105.00000077932 1914.999999999843)</t>
         </is>
       </c>
     </row>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>412D</t>
+          <t>3AAA</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>444.9999635535276</v>
+        <v>1947.496995410136</v>
       </c>
       <c r="E80" t="n">
-        <v>1812.458361149342</v>
+        <v>1120.000000001525</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>LINESTRING (444.9999635535276 1888.485472397809, 444.9999635535276 1736.431249900874)</t>
+          <t>LINESTRING (2265.306490820552 1120.000000005193, 1629.687499999719 1119.999999997858)</t>
         </is>
       </c>
     </row>
@@ -4152,14 +4152,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>41D3</t>
+          <t>3B51</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>444.9999635535276</v>
+        <v>1947.496995410136</v>
       </c>
       <c r="E81" t="n">
-        <v>1812.458361149342</v>
+        <v>1120.000000001525</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>LINESTRING (444.9999635535276 1888.485472397809, 444.9999635535276 1736.431249900874)</t>
+          <t>LINESTRING (2265.306490820552 1120.000000005193, 1629.687499999719 1119.999999997858)</t>
         </is>
       </c>
     </row>
@@ -4198,14 +4198,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>41D4</t>
+          <t>3B52</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2275.000000473271</v>
+        <v>1104.996267636654</v>
       </c>
       <c r="E82" t="n">
-        <v>1067.500060497708</v>
+        <v>1772.457530011611</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>LINESTRING (2365.067945202612 844.5818417484021, 2184.93205574393 1290.418279247013)</t>
+          <t>LINESTRING (1104.996267103788 1888.483810023381, 1104.996268169519 1656.431249999841)</t>
         </is>
       </c>
     </row>
@@ -4244,14 +4244,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>427A</t>
+          <t>3C10</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2275.000000473271</v>
+        <v>1104.996267636654</v>
       </c>
       <c r="E83" t="n">
-        <v>1067.500060497708</v>
+        <v>1772.457530011611</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>LINESTRING (2365.067945202612 844.5818417484021, 2184.93205574393 1290.418279247013)</t>
+          <t>LINESTRING (1104.996267103788 1888.483810023381, 1104.996268169519 1656.431249999841)</t>
         </is>
       </c>
     </row>
@@ -4290,14 +4290,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4D07</t>
+          <t>3C11</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2004.728715946717</v>
+        <v>1105.000000779319</v>
       </c>
       <c r="E84" t="n">
-        <v>1574.999999999847</v>
+        <v>1769.243749999841</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>LINESTRING (1923.752318686484 1574.999999999847, 2085.70511320695 1574.999999999847)</t>
+          <t>LINESTRING (1105.00000077932 1888.487499999843, 1105.000000779318 1649.999999999839)</t>
         </is>
       </c>
     </row>
@@ -4336,14 +4336,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4DAC</t>
+          <t>3CB6</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2004.728715946717</v>
+        <v>1105.000000779319</v>
       </c>
       <c r="E85" t="n">
-        <v>1574.999999999847</v>
+        <v>1769.243749999841</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4365,31 +4365,31 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>LINESTRING (1923.752318686484 1574.999999999847, 2085.70511320695 1574.999999999847)</t>
+          <t>LINESTRING (1105.00000077932 1888.487499999843, 1105.000000779318 1649.999999999839)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4DAD</t>
+          <t>3E0B</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>688.4478898135443</v>
+        <v>-1905.362025451708</v>
       </c>
       <c r="E86" t="n">
-        <v>1730.906216384383</v>
+        <v>284.6379745481463</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4411,31 +4411,31 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>LINESTRING (562.9512608843286 1856.402845313599, 813.94451874276 1605.409587455167)</t>
+          <t>LINESTRING (-1914.999999999834 301.5125000000195, -1914.9636655400145 300.12494296012846, -1914.8547617507854 298.7411891176358, -1914.6735871298627 297.36503124564035, -1914.420638264289 296.0002412972137, -1914.096608469323 294.65056006673893, -1913.7023858881093 293.3196869366537, -1913.2390510573412 292.0112697376997, -1912.7078739455835 290.72889475047236, -1912.1103104723782 289.4760768756748, -1911.447998517669 288.25625000001946, -1910.722753432487 287.0727575841836, -1909.9365630631999 285.92884349861527, -1909.091582302962 284.82764313231064, -1908.1901271853035 283.7721747989302, -1907.2346685360424 282.7653314638111, -1906.2278252009235 281.80987281455003, -1905.172356867543 280.9084176968915, -1904.0711565012384 280.06343693665366, -1902.92724241567 279.2772465673664, -1901.743749999834 278.5520014821845, -1900.523923124179 277.8896895274753, -1899.2711052493812 277.29212605426994, -1897.988730262154 276.76094894251236, -1896.6803130632 276.2976141117441, -1895.3494399331148 275.9033915305304, -1893.99975870264 275.57936173556436, -1892.6349687542133 275.32641286999075, -1891.2588108822179 275.145238249068, -1889.8750570397253 275.0363344598387, -1888.4874999998342 275.0000000000193)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5992</t>
+          <t>3F5A</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1787.883527052481</v>
+        <v>1905.116645618819</v>
       </c>
       <c r="E87" t="n">
-        <v>1262.883372447544</v>
+        <v>734.8833543810321</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>LINESTRING (1802.106275487583 1248.66083593829, 1773.660778617378 1277.105908956798)</t>
+          <t>LINESTRING (1887.8124999998547 724.9999999999968, 1889.23538381021 725.0372595238568, 1890.6543675949442 725.1489359696719, 1892.065562018136 725.3347232400665, 1893.4650990939626 725.5941121050464, 1894.8491427885797 725.9263915977627, 1896.2138995344237 726.3306509632223, 1897.5556286281176 726.8057821546041, 1898.8706524834781 727.3504828703385, 1900.1553667115238 727.9632601236254, 1901.4062499998547 728.6424343346073, 1902.6198737643258 729.3861439339805, 1903.7929115465565 730.1923504654278, 1904.9221481315224 731.0588441728853, 1906.0044883602363 731.98325005733, 1907.0369656133641 732.9630343864875, 1908.0167499425215 733.9955116396152, 1908.9411558269662 735.0778518683293, 1909.8076495344237 736.2070884532951, 1910.613856065871 737.3801262355256, 1911.3575656652442 738.5937499999967, 1912.0367398762262 739.8446332883277, 1912.649517129513 741.1293475163734, 1913.1942178452475 742.4443713717338, 1913.6693490366295 743.7861004654278, 1914.073608402089 745.1508572112718, 1914.4058878948053 746.5349009058888, 1914.6652767597852 747.9344379817154, 1914.85106403018 749.3456324049073, 1914.962740475995 750.7646161896416, 1914.999999999855 752.1874999999966)</t>
         </is>
       </c>
     </row>
@@ -4474,14 +4474,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5A4B</t>
+          <t>3F9C</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1974.897153852015</v>
+        <v>1055.000000549725</v>
       </c>
       <c r="E88" t="n">
-        <v>1219.999999999844</v>
+        <v>1914.999999999858</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>LINESTRING (1871.300383451141 1219.99999999984, 2078.49392425289 1219.999999999849)</t>
+          <t>LINESTRING (1055.000000549728 1914.999999999861, 1055.000000549723 1914.999999999854)</t>
         </is>
       </c>
     </row>
@@ -4520,14 +4520,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5EEE</t>
+          <t>3F9D</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1744.999284109111</v>
+        <v>595.0000146519458</v>
       </c>
       <c r="E89" t="n">
-        <v>1404.271337056718</v>
+        <v>1772.459431095384</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>LINESTRING (1744.999284109111 1462.242525484305, 1744.999284109111 1346.300148629131)</t>
+          <t>LINESTRING (595.0000146520006 1888.487612191205, 595.0000146518909 1656.431249999564)</t>
         </is>
       </c>
     </row>
@@ -4566,14 +4566,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>6392</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>139.9999999999932</v>
+        <v>595.0000146519458</v>
       </c>
       <c r="E90" t="n">
-        <v>1337.500006144784</v>
+        <v>1772.459431095384</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>LINESTRING (139.9999999999932 1670.31249999984, 139.9999999999932 1004.687512289727)</t>
+          <t>LINESTRING (595.0000146520006 1888.487612191205, 595.0000146518909 1656.431249999564)</t>
         </is>
       </c>
     </row>
@@ -4612,14 +4612,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>6439</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>139.9999999999932</v>
+        <v>595.0000306720278</v>
       </c>
       <c r="E91" t="n">
-        <v>1337.500006144784</v>
+        <v>1915.000008712291</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>LINESTRING (139.9999999999932 1670.31249999984, 139.9999999999932 1004.687512289727)</t>
+          <t>LINESTRING (595.0000306720251 1915.000008712288, 595.0000306720307 1915.000008712294)</t>
         </is>
       </c>
     </row>
@@ -4658,14 +4658,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>643C</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>219.9999999999983</v>
+        <v>1867.501556331323</v>
       </c>
       <c r="E92" t="n">
-        <v>1297.50000614478</v>
+        <v>1219.99999999984</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>LINESTRING (219.9999999999935 1590.312499999833, 220.0000000000031 1004.687512289727)</t>
+          <t>LINESTRING (2025.315631321405 1219.999999999845, 1709.687481341242 1219.999999999836)</t>
         </is>
       </c>
     </row>
@@ -4704,14 +4704,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>64E4</t>
+          <t>412C</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>219.9999999999983</v>
+        <v>1867.501556331323</v>
       </c>
       <c r="E93" t="n">
-        <v>1297.50000614478</v>
+        <v>1219.99999999984</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>LINESTRING (219.9999999999935 1590.312499999833, 220.0000000000031 1004.687512289727)</t>
+          <t>LINESTRING (2025.315631321405 1219.999999999845, 1709.687481341242 1219.999999999836)</t>
         </is>
       </c>
     </row>
@@ -4750,14 +4750,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>64E7</t>
+          <t>412D</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1680.000006494131</v>
+        <v>444.9999635535276</v>
       </c>
       <c r="E94" t="n">
-        <v>1459.999999999838</v>
+        <v>1812.458361149342</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>LINESTRING (1679.999981388724 1249.687499999836, 1680.000031599538 1670.31249999984)</t>
+          <t>LINESTRING (444.9999635535276 1888.485472397809, 444.9999635535276 1736.431249900874)</t>
         </is>
       </c>
     </row>
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>658C</t>
+          <t>41D3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1680.000006494131</v>
+        <v>444.9999635535276</v>
       </c>
       <c r="E95" t="n">
-        <v>1459.999999999838</v>
+        <v>1812.458361149342</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>LINESTRING (1679.999981388724 1249.687499999836, 1680.000031599538 1670.31249999984)</t>
+          <t>LINESTRING (444.9999635535276 1888.485472397809, 444.9999635535276 1736.431249900874)</t>
         </is>
       </c>
     </row>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>658F</t>
+          <t>41D4</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1062.299988499169</v>
+        <v>2275.000000473271</v>
       </c>
       <c r="E96" t="n">
-        <v>1699.99999999984</v>
+        <v>1067.500060497708</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>LINESTRING (1650.312531737241 1699.99999999984, 474.2874452610975 1699.99999999984)</t>
+          <t>LINESTRING (2365.067945202612 844.5818417484021, 2184.93205574393 1290.418279247013)</t>
         </is>
       </c>
     </row>
@@ -4888,14 +4888,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>427A</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1062.299988499169</v>
+        <v>2275.000000473271</v>
       </c>
       <c r="E97" t="n">
-        <v>1699.99999999984</v>
+        <v>1067.500060497708</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4917,31 +4917,31 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>LINESTRING (1650.312531737241 1699.99999999984, 474.2874452610975 1699.99999999984)</t>
+          <t>LINESTRING (2365.067945202612 844.5818417484021, 2184.93205574393 1290.418279247013)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>690A</t>
+          <t>427C</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>292.6999726305478</v>
+        <v>119.7922907979246</v>
       </c>
       <c r="E98" t="n">
-        <v>1699.99999999984</v>
+        <v>2430.362025451859</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4963,31 +4963,31 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>LINESTRING (169.6874999999932 1699.99999999984, 415.7124452611024 1699.99999999984)</t>
+          <t>LINESTRING (129.4302653460513 2413.487499999985, 129.39393088623194 2414.875057039876, 129.28502709700265 2416.258810882369, 129.10385247607988 2417.6349687543643, 128.85090361050632 2418.999758702791, 128.52687381554023 2420.349439933266, 128.13265123432654 2421.680313063351, 127.66931640355835 2422.988730262305, 127.13813929180075 2424.2711052495324, 126.54057581859541 2425.52392312433, 125.87826386388623 2426.743749999985, 125.15301877870436 2427.927242415821, 124.3668284094171 2429.0711565013894, 123.52184764917925 2430.172356867694, 122.62039253152072 2431.227825201074, 121.66493388225965 2432.2346685361936, 120.65809054714055 2433.1901271854545, 119.60262221376013 2434.0915823031132, 118.5014218474555 2434.936563063351, 117.35750776188722 2435.722753432638, 116.17401534605132 2436.44799851782, 114.95418847039606 2437.1103104725294, 113.70137059559848 2437.7078739457347, 112.4189956083711 2438.2390510574924, 111.11057840941713 2438.7023858882603, 109.7797052793319 2439.096608469474, 108.43002404885718 2439.42063826444, 107.06523410043046 2439.673587130014, 105.689076228435 2439.8547617509366, 104.30532238594239 2439.963665540166, 102.91776534605134 2439.999999999985)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>69AF</t>
+          <t>43CF</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>292.6999726305478</v>
+        <v>372.3201183893541</v>
       </c>
       <c r="E99" t="n">
-        <v>1699.99999999984</v>
+        <v>2407.873037489389</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>LINESTRING (169.6874999999932 1699.99999999984, 415.7124452611024 1699.99999999984)</t>
+          <t>LINESTRING (404.44717321748465 2413.4875894516626, 404.12075998922177 2409.3401208055225, 403.1495584227331 2405.294776656559, 401.55748272290157 2401.451166799626, 399.38373507574954 2397.9039336619817, 396.6818403605516 2394.7404218927154, 393.51832818971815 2392.038527647692, 389.97109472900206 2389.864780527744, 386.12748463544864 2388.272705399166, 382.0821403421412 2387.3015044339136, 377.9346716474879 2386.975091822065, 373.7872029914932 2387.301504925117, 369.74185881320943 2388.272706369478, 365.89824890821257 2389.8647819532716, 362.3510157049431 2392.0385294933335, 359.18750385410715 2394.740424113026, 356.48560951357797 2397.90393620229, 354.3118622865406 2401.451169597381, 352.719787041925 2405.2947796428703, 351.74858595454447 2409.3401239068576, 351.4221732174848 2413.4875925916563, 351.7485861953257 2417.635061257505, 352.71978751755853 2421.6804054651093, 354.31186298531486 2425.5240154181706, 356.48561041828674 2429.071248687065, 359.18750494247354 2432.2347606194703, 362.351016950168 2434.9366550555055, 365.8982502796343 2437.110402389633, 369.74186027705906 2438.702477750286, 373.78720451172586 2439.6736789597944, 377.9346731866705 2440.000091822065)</t>
         </is>
       </c>
     </row>
@@ -5026,14 +5026,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>69B0</t>
+          <t>4D07</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>444.9999526138445</v>
+        <v>2004.728715946717</v>
       </c>
       <c r="E100" t="n">
-        <v>1714.643749956886</v>
+        <v>1574.999999999847</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>LINESTRING (444.9999599665891 1729.287499913931, 444.9999452611 1699.99999999984)</t>
+          <t>LINESTRING (1923.752318686484 1574.999999999847, 2085.70511320695 1574.999999999847)</t>
         </is>
       </c>
     </row>
@@ -5072,14 +5072,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>69B1</t>
+          <t>4DAC</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>444.9999452610999</v>
+        <v>2004.728715946717</v>
       </c>
       <c r="E101" t="n">
-        <v>1699.99999999984</v>
+        <v>1574.999999999847</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>LINESTRING (474.2874452610975 1699.99999999984, 415.7124452611024 1699.99999999984)</t>
+          <t>LINESTRING (1923.752318686484 1574.999999999847, 2085.70511320695 1574.999999999847)</t>
         </is>
       </c>
     </row>
@@ -5118,14 +5118,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>6A3D</t>
+          <t>4DAD</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>444.9999617600583</v>
+        <v>688.4478898135443</v>
       </c>
       <c r="E102" t="n">
-        <v>1732.859374907403</v>
+        <v>1730.906216384383</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>LINESTRING (444.9999599665891 1729.287499913931, 444.9999635535276 1736.431249900874)</t>
+          <t>LINESTRING (562.9512608843286 1856.402845313599, 813.94451874276 1605.409587455167)</t>
         </is>
       </c>
     </row>
@@ -5164,14 +5164,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6A40</t>
+          <t>5992</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1599.999999970997</v>
+        <v>1787.883527052481</v>
       </c>
       <c r="E103" t="n">
-        <v>1370.000003793442</v>
+        <v>1262.883372447544</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>LINESTRING (1599.999999970997 1590.31250005441, 1599.999999970997 1149.687507532475)</t>
+          <t>LINESTRING (1802.106275487583 1248.66083593829, 1773.660778617378 1277.105908956798)</t>
         </is>
       </c>
     </row>
@@ -5210,14 +5210,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6AE6</t>
+          <t>5A4B</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1599.999999970997</v>
+        <v>1974.897153852015</v>
       </c>
       <c r="E104" t="n">
-        <v>1370.000003793442</v>
+        <v>1219.999999999844</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>LINESTRING (1599.999999970997 1590.31250005441, 1599.999999970997 1149.687507532475)</t>
+          <t>LINESTRING (1871.300383451141 1219.99999999984, 2078.49392425289 1219.999999999849)</t>
         </is>
       </c>
     </row>
@@ -5256,14 +5256,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>6AE9</t>
+          <t>5EEE</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1054.996525857955</v>
+        <v>1744.999284109111</v>
       </c>
       <c r="E105" t="n">
-        <v>1752.498142353823</v>
+        <v>1404.271337056718</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>LINESTRING (1054.996525857955 1888.483784707943, 1054.996525857955 1616.512499999704)</t>
+          <t>LINESTRING (1744.999284109111 1462.242525484305, 1744.999284109111 1346.300148629131)</t>
         </is>
       </c>
     </row>
@@ -5302,14 +5302,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>6B8F</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1054.996525857955</v>
+        <v>139.9999999999932</v>
       </c>
       <c r="E106" t="n">
-        <v>1752.498142353823</v>
+        <v>1337.500006144784</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>LINESTRING (1054.996525857955 1888.483784707943, 1054.996525857955 1616.512499999704)</t>
+          <t>LINESTRING (139.9999999999932 1670.31249999984, 139.9999999999932 1004.687512289727)</t>
         </is>
       </c>
     </row>
@@ -5348,14 +5348,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>6E63</t>
+          <t>6439</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>407.700007325938</v>
+        <v>139.9999999999932</v>
       </c>
       <c r="E107" t="n">
-        <v>1619.999999999838</v>
+        <v>1337.500006144784</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -5377,31 +5377,31 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>LINESTRING (249.6874999999935 1619.999999999833, 565.7125146518825 1619.999999999842)</t>
+          <t>LINESTRING (139.9999999999932 1670.31249999984, 139.9999999999932 1004.687512289727)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6F08</t>
+          <t>643B</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>407.700007325938</v>
+        <v>150.7921685769919</v>
       </c>
       <c r="E108" t="n">
-        <v>1619.999999999838</v>
+        <v>1689.207831422839</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>LINESTRING (249.6874999999935 1619.999999999833, 565.7125146518825 1619.999999999842)</t>
+          <t>LINESTRING (169.6874999999994 1699.999999999832, 168.133776299037 1699.9593143128584, 166.58431124674092 1699.8373687685776, 165.04335181911753 1699.63449761125, 163.51512167884718 1699.3512568966169, 162.0038095985183 1698.9884229677887, 160.51355797949316 1698.5469903273442, 159.04845149787332 1698.0281689114677, 157.6125059086866 1697.4333807735966, 156.20965703898162 1696.7642561866742, 154.84374999999943 1696.0226291746826, 153.5185286479908 1695.2105324857118, 152.23762532256663 1694.3301920203382, 151.00455089070738 1693.384020730586, 149.82268512372082 1692.3746120061921, 148.69526743352378 1691.3047325663076, 147.62538799363927 1690.1773148761106, 146.6159792692456 1688.9954491091241, 145.66980797949316 1687.7623746772647, 144.78946751411965 1686.4814713518406, 143.9773708251489 1685.156249999832, 143.23574381315726 1683.7903429608498, 142.5666192262347 1682.3874940911448, 141.97183108836373 1680.951548501958, 141.45300967248704 1679.4864420203382, 141.0115770320427 1677.996190401313, 140.64874310321457 1676.4848783209843, 140.36550238858126 1674.956648180714, 140.16263123125378 1673.4156887530905, 140.040685686973 1671.8662237007945, 139.9999999999994 1670.312499999832)</t>
         </is>
       </c>
     </row>
@@ -5440,14 +5440,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6F09</t>
+          <t>643C</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>595.00001465188</v>
+        <v>219.9999999999983</v>
       </c>
       <c r="E109" t="n">
-        <v>1634.64374999973</v>
+        <v>1297.50000614478</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>LINESTRING (595.00001465188 1649.287499999618, 595.00001465188 1619.999999999842)</t>
+          <t>LINESTRING (219.9999999999935 1590.312499999833, 220.0000000000031 1004.687512289727)</t>
         </is>
       </c>
     </row>
@@ -5486,14 +5486,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6F0A</t>
+          <t>64E4</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>595.0000146518802</v>
+        <v>219.9999999999983</v>
       </c>
       <c r="E110" t="n">
-        <v>1619.999999999842</v>
+        <v>1297.50000614478</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -5515,31 +5515,31 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>LINESTRING (624.2875146518777 1619.999999999841, 565.7125146518825 1619.999999999842)</t>
+          <t>LINESTRING (219.9999999999935 1590.312499999833, 220.0000000000031 1004.687512289727)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>6F76</t>
+          <t>64E6</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>595.0000146518854</v>
+        <v>230.7921685769923</v>
       </c>
       <c r="E111" t="n">
-        <v>1652.859374999591</v>
+        <v>1609.207831422832</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>LINESTRING (595.00001465188 1649.287499999618, 595.0000146518909 1656.431249999564)</t>
+          <t>LINESTRING (249.6874999999998 1619.999999999825, 248.1337762990374 1619.9593143128513, 246.58431124674132 1619.8373687685705, 245.04335181911793 1619.634497611243, 243.51512167884758 1619.3512568966098, 242.0038095985187 1618.9884229677816, 240.51355797949356 1618.5469903273372, 239.0484514978737 1618.0281689114606, 237.61250590868698 1617.4333807735895, 236.20965703898202 1616.7642561866671, 234.84374999999983 1616.0226291746756, 233.5185286479912 1615.2105324857048, 232.23762532256703 1614.3301920203312, 231.00455089070778 1613.3840207305789, 229.82268512372121 1612.374612006185, 228.69526743352418 1611.3047325663006, 227.62538799363966 1610.1773148761035, 226.615979269246 1608.995449109117, 225.66980797949356 1607.7623746772576, 224.78946751412005 1606.4814713518335, 223.9773708251493 1605.156249999825, 223.23574381315765 1603.7903429608427, 222.5666192262351 1602.3874940911378, 221.97183108836413 1600.951548501951, 221.45300967248744 1599.4864420203312, 221.0115770320431 1597.996190401306, 220.64874310321497 1596.4848783209773, 220.36550238858166 1594.956648180707, 220.16263123125418 1593.4156887530835, 220.0406856869734 1591.8662237007875, 219.9999999999998 1590.312499999825)</t>
         </is>
       </c>
     </row>
@@ -5578,14 +5578,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>70CC</t>
+          <t>64E7</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>849.9981414106974</v>
+        <v>1680.000006494131</v>
       </c>
       <c r="E112" t="n">
-        <v>1619.999999999841</v>
+        <v>1459.999999999838</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>LINESTRING (624.2875146518777 1619.999999999841, 1075.708768169517 1619.999999999841)</t>
+          <t>LINESTRING (1679.999981388724 1249.687499999836, 1680.000031599538 1670.31249999984)</t>
         </is>
       </c>
     </row>
@@ -5624,14 +5624,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>716F</t>
+          <t>658C</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>849.9981414106974</v>
+        <v>1680.000006494131</v>
       </c>
       <c r="E113" t="n">
-        <v>1619.999999999841</v>
+        <v>1459.999999999838</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -5653,31 +5653,31 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>LINESTRING (624.2875146518777 1619.999999999841, 1075.708768169517 1619.999999999841)</t>
+          <t>LINESTRING (1679.999981388724 1249.687499999836, 1680.000031599538 1670.31249999984)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7170</t>
+          <t>658E</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1104.996268169514</v>
+        <v>1690.930153898513</v>
       </c>
       <c r="E114" t="n">
-        <v>1634.643749999841</v>
+        <v>1230.792168576834</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>LINESTRING (1104.996268169514 1649.287499999841, 1104.996268169514 1619.999999999841)</t>
+          <t>LINESTRING (1680.137985321521 1249.6874999998422, 1680.1786710084946 1248.1337762988799, 1680.3006165527754 1246.5843112465836, 1680.5034877101027 1245.0433518189602, 1680.786728424736 1243.5151216786899, 1681.1495623535643 1242.0038095983612, 1681.5909949940085 1240.513557979336, 1682.1098164098853 1239.048451497716, 1682.7046045477562 1237.6125059085293, 1683.3737291346788 1236.2096570388244, 1684.1153561466704 1234.8437499998422, 1684.9274528356411 1233.5185286478336, 1685.8077933010145 1232.2376253224093, 1686.753964590767 1231.00455089055, 1687.7633733151606 1229.8226851235636, 1688.8332527550451 1228.6952674333666, 1689.9606704452422 1227.625387993482, 1691.1425362122288 1226.6159792690883, 1692.375610644088 1225.669807979336, 1693.6565139695122 1224.7894675139623, 1694.9817353215208 1223.9773708249916, 1696.347642360503 1223.235743813, 1697.750491230208 1222.5666192260774, 1699.1864368193947 1221.9718310882063, 1700.6515433010145 1221.4530096723297, 1702.1417949200397 1221.0115770318853, 1703.6531070003684 1220.648743103057, 1705.181337140639 1220.365502388424, 1706.7222965682622 1220.1626312310964, 1708.2717616205584 1220.0406856868156, 1709.8254853215208 1219.999999999842)</t>
         </is>
       </c>
     </row>
@@ -5716,14 +5716,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>7171</t>
+          <t>658F</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1104.996268169515</v>
+        <v>1062.299988499169</v>
       </c>
       <c r="E115" t="n">
-        <v>1619.999999999841</v>
+        <v>1699.99999999984</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>LINESTRING (1134.283768169512 1619.999999999841, 1075.708768169517 1619.999999999841)</t>
+          <t>LINESTRING (1650.312531737241 1699.99999999984, 474.2874452610975 1699.99999999984)</t>
         </is>
       </c>
     </row>
@@ -5762,14 +5762,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>71FE</t>
+          <t>6634</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1104.996268169516</v>
+        <v>1062.299988499169</v>
       </c>
       <c r="E116" t="n">
-        <v>1652.859374999841</v>
+        <v>1699.99999999984</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -5791,31 +5791,31 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>LINESTRING (1104.996268169514 1649.287499999841, 1104.996268169519 1656.431249999841)</t>
+          <t>LINESTRING (1650.312531737241 1699.99999999984, 474.2874452610975 1699.99999999984)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>71FF</t>
+          <t>6789</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1352.298134070255</v>
+        <v>1905.361213593339</v>
       </c>
       <c r="E117" t="n">
-        <v>1619.999999999841</v>
+        <v>2430.361674128998</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>LINESTRING (1134.283768169512 1619.999999999841, 1570.312499970998 1619.999999999841)</t>
+          <t>LINESTRING (1915.000011327452 2413.486679424598, 1914.9636733250252 2414.8743040598174, 1914.8547589273942 2416.2581249415343, 1914.6735666904588 2417.634348743088, 1914.420593297968 2418.9992029629148, 1914.0965322000113 2420.3489462657244, 1913.7022717121354 2421.6798787382363, 1913.238892580295 2422.9883520313774, 1912.707665018315 2424.2707793611235, 1912.1100452259836 2425.5236453405887, 1911.4476713973195 2426.7435156163924, 1910.7223592299592 2427.927046282901, 1909.9360969479703 2429.0709930485373, 1909.0910398517367 2430.1722201290218, 1908.1895044098535 2431.2277088431806, 1907.2339619092286 2432.234565887744, 1906.2270316807972 2433.190031268466, 1905.1714739194167 2434.091485865813, 1904.0701821176285 2434.936458614487, 1902.926175134021 2435.7226332771065, 1901.7425889179424 2436.44785479347, 1900.5226679132431 2437.110135188002, 1899.269756164614 2437.7076590191873, 1897.9872881508975 2438.2387883560555, 1896.678779370504 2438.7020672680733, 1895.3478167047333 2439.0962258161385, 1893.9980485854257 2439.4201835337326, 1892.633174993888 2439.6730523886954, 1891.2569373185124 2439.8541392174952, 1889.873108098893 2439.962947625328, 1888.4854806845472 2439.9991793468325)</t>
         </is>
       </c>
     </row>
@@ -5854,14 +5854,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>72A4</t>
+          <t>690A</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1352.298134070255</v>
+        <v>292.6999726305478</v>
       </c>
       <c r="E118" t="n">
-        <v>1619.999999999841</v>
+        <v>1699.99999999984</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>LINESTRING (1134.283768169512 1619.999999999841, 1570.312499970998 1619.999999999841)</t>
+          <t>LINESTRING (169.6874999999932 1699.99999999984, 415.7124452611024 1699.99999999984)</t>
         </is>
       </c>
     </row>
@@ -5900,14 +5900,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>72A9</t>
+          <t>69AF</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>677.4982631467993</v>
+        <v>292.6999726305478</v>
       </c>
       <c r="E119" t="n">
-        <v>1589.999999999837</v>
+        <v>1699.99999999984</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>LINESTRING (326.5125004356475 1589.999999999842, 1028.484025857951 1589.999999999833)</t>
+          <t>LINESTRING (169.6874999999932 1699.99999999984, 415.7124452611024 1699.99999999984)</t>
         </is>
       </c>
     </row>
@@ -5946,14 +5946,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>734F</t>
+          <t>69B0</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>677.4982631467993</v>
+        <v>444.9999526138445</v>
       </c>
       <c r="E120" t="n">
-        <v>1589.999999999837</v>
+        <v>1714.643749956886</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>LINESTRING (326.5125004356475 1589.999999999842, 1028.484025857951 1589.999999999833)</t>
+          <t>LINESTRING (444.9999599665891 1729.287499913931, 444.9999452611 1699.99999999984)</t>
         </is>
       </c>
     </row>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>69B1</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>300.0000004356579</v>
+        <v>444.9999452610999</v>
       </c>
       <c r="E121" t="n">
-        <v>928.0096865459384</v>
+        <v>1699.99999999984</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>LINESTRING (300.000000435656 979.6875122897599, 300.0000004356597 876.3318608021169)</t>
+          <t>LINESTRING (474.2874452610975 1699.99999999984, 415.7124452611024 1699.99999999984)</t>
         </is>
       </c>
     </row>
@@ -6038,14 +6038,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>73F9</t>
+          <t>6A3D</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>300.0000004356579</v>
+        <v>444.9999617600583</v>
       </c>
       <c r="E122" t="n">
-        <v>928.0096865459384</v>
+        <v>1732.859374907403</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -6067,31 +6067,31 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>LINESTRING (300.000000435656 979.6875122897599, 300.0000004356597 876.3318608021169)</t>
+          <t>LINESTRING (444.9999599665891 1729.287499913931, 444.9999635535276 1736.431249900874)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>73FA</t>
+          <t>6A3F</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>220.000000000003</v>
+        <v>1669.442876070671</v>
       </c>
       <c r="E123" t="n">
-        <v>975.0000192538296</v>
+        <v>1689.207831422841</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>LINESTRING (220.000000000003 975.0000122897274, 220.000000000003 975.0000262179318)</t>
+          <t>LINESTRING (1680.235044647663 1670.312499999834, 1680.1943589606894 1671.8662237007964, 1680.0724134164086 1673.4156887530926, 1679.869542259081 1674.9566481807158, 1679.586301544448 1676.4848783209864, 1679.2234676156197 1677.996190401315, 1678.7820349751753 1679.4864420203403, 1678.2632135592987 1680.9515485019601, 1677.6684254214276 1682.387494091147, 1676.9993008345052 1683.7903429608518, 1676.2576738225137 1685.156249999834, 1675.4455771335429 1686.4814713518426, 1674.5652366681693 1687.7623746772667, 1673.619065378417 1688.995449109126, 1672.6096566540232 1690.1773148761126, 1671.5397772141387 1691.3047325663097, 1670.4123595239416 1692.3746120061942, 1669.2304937569552 1693.3840207305877, 1667.9974193250957 1694.3301920203403, 1666.7165159996716 1695.2105324857139, 1665.391294647663 1696.0226291746844, 1664.0253876086808 1696.7642561866762, 1662.622538738976 1697.4333807735986, 1661.1865931497891 1698.0281689114697, 1659.7214866681693 1698.5469903273463, 1658.231235049144 1698.9884229677907, 1656.7199229688154 1699.351256896619, 1655.191692828545 1699.634497611252, 1653.6507334009216 1699.8373687685796, 1652.1012683486254 1699.9593143128604, 1650.547544647663 1699.999999999834)</t>
         </is>
       </c>
     </row>
@@ -6130,14 +6130,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>74A1</t>
+          <t>6A40</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>220.000000000003</v>
+        <v>1599.999999970997</v>
       </c>
       <c r="E124" t="n">
-        <v>975.0000192538296</v>
+        <v>1370.000003793442</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>LINESTRING (220.000000000003 975.0000122897274, 220.000000000003 975.0000262179318)</t>
+          <t>LINESTRING (1599.999999970997 1590.31250005441, 1599.999999970997 1149.687507532475)</t>
         </is>
       </c>
     </row>
@@ -6176,14 +6176,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>74A4</t>
+          <t>6AE6</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>140.0000000000026</v>
+        <v>1599.999999970997</v>
       </c>
       <c r="E125" t="n">
-        <v>975.0000122897274</v>
+        <v>1370.000003793442</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -6205,31 +6205,31 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>LINESTRING (140.0000000000027 975.0000122897274, 140.0000000000026 975.0000122897272)</t>
+          <t>LINESTRING (1599.999999970997 1590.31250005441, 1599.999999970997 1149.687507532475)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>754A</t>
+          <t>6AE8</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>140.0000000000026</v>
+        <v>2284.190746411084</v>
       </c>
       <c r="E126" t="n">
-        <v>975.0000122897274</v>
+        <v>1130.787293143637</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>LINESTRING (140.0000000000027 975.0000122897274, 140.0000000000026 975.0000122897272)</t>
+          <t>LINESTRING (2265.295414988077 1119.995124566645, 2266.849138689039 1120.0358102536186, 2268.398603741335 1120.1577557978994, 2269.9395631689586 1120.3606269552267, 2271.467793309229 1120.6438676698601, 2272.979105389558 1121.0067015986883, 2274.4693570085833 1121.4481342391325, 2275.934463490203 1121.9669556550093, 2277.37040907939 1122.5617437928802, 2278.773257949095 1123.2308683798028, 2280.139164988077 1123.9724953917944, 2281.4643863400856 1124.7845920807652, 2282.7452896655095 1125.6649325461387, 2283.9783640973687 1126.611103835891, 2285.1602298643556 1127.6205125602849, 2286.2876475545527 1128.6903920001694, 2287.357526994437 1129.8178096903662, 2288.3669357188305 1130.9996754573529, 2289.3131070085833 1132.232749889212, 2290.193447473957 1133.5136532146362, 2291.0055441629274 1134.8388745666448, 2291.747171174919 1136.204781605627, 2292.416295761842 1137.6076304753321, 2293.0110838997125 1139.0435760645187, 2293.5299053155895 1140.5086825461385, 2293.9713379560335 1141.9989341651637, 2294.334171884862 1143.5102462454927, 2294.6174125994953 1145.038476385763, 2294.820283756823 1146.5794358133865, 2294.9422293011035 1148.1289008656825, 2294.982914988077 1149.6826245666448)</t>
         </is>
       </c>
     </row>
@@ -6268,14 +6268,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>79F6</t>
+          <t>6AE9</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>264.9593752178313</v>
+        <v>1054.996525857955</v>
       </c>
       <c r="E127" t="n">
-        <v>849.8193608021169</v>
+        <v>1752.498142353823</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>LINESTRING (256.4312500000029 849.8193608021169, 273.4875004356597 849.8193608021169)</t>
+          <t>LINESTRING (1054.996525857955 1888.483784707943, 1054.996525857955 1616.512499999704)</t>
         </is>
       </c>
     </row>
@@ -6314,14 +6314,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>7A9D</t>
+          <t>6B8F</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>264.9593752178313</v>
+        <v>1054.996525857955</v>
       </c>
       <c r="E128" t="n">
-        <v>849.8193608021169</v>
+        <v>1752.498142353823</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -6343,31 +6343,31 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>LINESTRING (256.4312500000029 849.8193608021169, 273.4875004356597 849.8193608021169)</t>
+          <t>LINESTRING (1054.996525857955 1888.483784707943, 1054.996525857955 1616.512499999704)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>7A9F</t>
+          <t>6CE3</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>220.0000000000031</v>
+        <v>1905.362076112137</v>
       </c>
       <c r="E129" t="n">
-        <v>912.209714183311</v>
+        <v>2460.361863693296</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>LINESTRING (220.0000000000031 945.3125675642887, 220.0000000000031 879.1068608023332)</t>
+          <t>LINESTRING (1915.00000871228 2443.487362155148, 1914.9636744329828 2444.874915750469, 1914.85477118433 2446.258666176728, 1914.6735974610735 2447.6348206890348, 1914.4206498453284 2448.9996073622656, 1914.0966216454826 2450.3492854296005, 1913.7024009958964 2451.6801555356515, 1913.2390684225998 2452.988569876089, 1912.707893881661 2454.2709421959707, 1912.1103332783414 2455.523757619367, 1911.4480244765816 2456.7435822833463, 1910.7227828097514 2457.9270727499043, 1909.936596104972 2459.070985170052, 1909.0916192346485 2460.1721841749363, 1908.1901682101416 2461.227651469624, 1907.2347138337745 2462.2344941059987, 1906.227874926569 2463.189952412089, 1905.172411150274 2464.091407556103, 1904.071215443363 2464.9363887244263, 1902.927306091729 2465.7225798939166, 1901.7438184558157 2466.4478261799327, 1900.523996376853 2467.1101397426924, 1899.271183285759 2467.7077052357754, 1897.9888130390739 2468.2388847818397, 1896.6804005070444 2468.702222461905, 1895.3495319396561 2469.096448305906, 1893.9998551370213 2469.420481773575, 1892.635069451061 2469.6734347161128, 1891.2589156458905 2469.8546138105316, 1889.8751656446937 2469.9635224599942, 1888.4876121911968 2469.9998621549457)</t>
         </is>
       </c>
     </row>
@@ -6406,14 +6406,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>7B47</t>
+          <t>6E63</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>220.0000000000031</v>
+        <v>407.700007325938</v>
       </c>
       <c r="E130" t="n">
-        <v>912.209714183311</v>
+        <v>1619.999999999838</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>LINESTRING (220.0000000000031 945.3125675642887, 220.0000000000031 879.1068608023332)</t>
+          <t>LINESTRING (249.6874999999935 1619.999999999833, 565.7125146518825 1619.999999999842)</t>
         </is>
       </c>
     </row>
@@ -6452,14 +6452,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7B48</t>
+          <t>6F08</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>234.643750000003</v>
+        <v>407.700007325938</v>
       </c>
       <c r="E131" t="n">
-        <v>849.819360802364</v>
+        <v>1619.999999999838</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>LINESTRING (249.2875000000029 849.819360802364, 220.000000000003 849.819360802364)</t>
+          <t>LINESTRING (249.6874999999935 1619.999999999833, 565.7125146518825 1619.999999999842)</t>
         </is>
       </c>
     </row>
@@ -6498,14 +6498,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>7B49</t>
+          <t>6F09</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>220.000000000003</v>
+        <v>595.00001465188</v>
       </c>
       <c r="E132" t="n">
-        <v>849.8193608023641</v>
+        <v>1634.64374999973</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>LINESTRING (220.0000000000029 820.5318608023949, 220.0000000000031 879.1068608023332)</t>
+          <t>LINESTRING (595.00001465188 1649.287499999618, 595.00001465188 1619.999999999842)</t>
         </is>
       </c>
     </row>
@@ -6544,14 +6544,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>7BD5</t>
+          <t>6F0A</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>252.8593750000029</v>
+        <v>595.0000146518802</v>
       </c>
       <c r="E133" t="n">
-        <v>849.8193608022405</v>
+        <v>1619.999999999842</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>LINESTRING (249.2875000000029 849.819360802364, 256.4312500000029 849.8193608021169)</t>
+          <t>LINESTRING (624.2875146518777 1619.999999999841, 565.7125146518825 1619.999999999842)</t>
         </is>
       </c>
     </row>
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>839A</t>
+          <t>6F76</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>300.0000004356477</v>
+        <v>595.0000146518854</v>
       </c>
       <c r="E134" t="n">
-        <v>1321.587506144798</v>
+        <v>1652.859374999591</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -6619,31 +6619,31 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>LINESTRING (300.0000004356476 1563.487499999843, 300.0000004356476 1079.687512289752)</t>
+          <t>LINESTRING (595.00001465188 1649.287499999618, 595.0000146518909 1656.431249999564)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>8443</t>
+          <t>70CA</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>300.0000004356477</v>
+        <v>1905.358324920706</v>
       </c>
       <c r="E135" t="n">
-        <v>1321.587506144798</v>
+        <v>2460.226927477655</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>LINESTRING (300.0000004356476 1563.487499999843, 300.0000004356476 1079.687512289752)</t>
+          <t>LINESTRING (1914.9963100233338 2443.3524291851095, 1914.9599732527938 2444.7399846419607, 1914.8510673183252 2446.123736788904, 1914.66989072287 2447.4998928658047, 1914.416940057793 2448.864680932784, 1914.092908641765 2450.2143602088186, 1913.698684620426 2451.545231324942, 1913.2353485320473 2452.8536464639315, 1912.7041703458551 2454.1360193587034, 1912.106605981144 2455.388835121998, 1911.4442933167088 2456.6086598804204, 1910.719047701545 2457.7921501864294, 1909.9328569791132 2458.9360621824735, 1909.0878760388105 2460.0372604921604, 1908.186420909581 2461.0927268140854, 1907.2309624118561 2462.099568194769, 1906.2241193852215 2463.0550249580233, 1905.1686515103765 2463.956478269017, 1904.0674517450568 2464.8014573123023, 1902.9235383946564 2465.587646064135, 1901.7400468392805 2466.3128896405183, 1900.5202209399047 2466.9752002035807, 1899.267404147198 2467.572762410086, 1897.9850303373762 2468.103938387155, 1896.6766144002072 2468.5672722215477, 1895.3457426049627 2468.9614939502167, 1893.996062770726 2469.2855230411737, 1892.631274267995 2469.5384713551525, 1891.2551178789863 2469.7196455799267, 1889.871365544435 2469.828549130628, 1888.4838100249888 2469.864883510849)</t>
         </is>
       </c>
     </row>
@@ -6682,14 +6682,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1C8BC</t>
+          <t>70CC</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1182.939311181363</v>
+        <v>849.9981414106974</v>
       </c>
       <c r="E136" t="n">
-        <v>1864.309706159335</v>
+        <v>1619.999999999841</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
+          <t>LINESTRING (624.2875146518777 1619.999999999841, 1075.708768169517 1619.999999999841)</t>
         </is>
       </c>
     </row>
@@ -6728,14 +6728,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1C8BD</t>
+          <t>716F</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1182.939311181363</v>
+        <v>849.9981414106974</v>
       </c>
       <c r="E137" t="n">
-        <v>1864.309706159335</v>
+        <v>1619.999999999841</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
+          <t>LINESTRING (624.2875146518777 1619.999999999841, 1075.708768169517 1619.999999999841)</t>
         </is>
       </c>
     </row>
@@ -6774,14 +6774,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1C8E1</t>
+          <t>7170</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1182.939311181363</v>
+        <v>1104.996268169514</v>
       </c>
       <c r="E138" t="n">
-        <v>1864.309706159335</v>
+        <v>1634.643749999841</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
+          <t>LINESTRING (1104.996268169514 1649.287499999841, 1104.996268169514 1619.999999999841)</t>
         </is>
       </c>
     </row>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1C8E2</t>
+          <t>7171</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1182.939311181363</v>
+        <v>1104.996268169515</v>
       </c>
       <c r="E139" t="n">
-        <v>1864.309706159335</v>
+        <v>1619.999999999841</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
+          <t>LINESTRING (1134.283768169512 1619.999999999841, 1075.708768169517 1619.999999999841)</t>
         </is>
       </c>
     </row>
@@ -6866,14 +6866,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1C8E3</t>
+          <t>71FE</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1182.939311181363</v>
+        <v>1104.996268169516</v>
       </c>
       <c r="E140" t="n">
-        <v>1864.309706159335</v>
+        <v>1652.859374999841</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
+          <t>LINESTRING (1104.996268169514 1649.287499999841, 1104.996268169519 1656.431249999841)</t>
         </is>
       </c>
     </row>
@@ -6912,14 +6912,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1C8E4</t>
+          <t>71FF</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1182.939311181363</v>
+        <v>1352.298134070255</v>
       </c>
       <c r="E141" t="n">
-        <v>1864.309706159335</v>
+        <v>1619.999999999841</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
+          <t>LINESTRING (1134.283768169512 1619.999999999841, 1570.312499970998 1619.999999999841)</t>
         </is>
       </c>
     </row>
@@ -6958,14 +6958,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1C8E5</t>
+          <t>72A4</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1659.060688818645</v>
+        <v>1352.298134070255</v>
       </c>
       <c r="E142" t="n">
-        <v>1864.309706159333</v>
+        <v>1619.999999999841</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -6987,31 +6987,31 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
+          <t>LINESTRING (1134.283768169512 1619.999999999841, 1570.312499970998 1619.999999999841)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1C8E6</t>
+          <t>72A6</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1659.060688818645</v>
+        <v>1589.208366238063</v>
       </c>
       <c r="E143" t="n">
-        <v>1864.309706159333</v>
+        <v>1609.058601699264</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -7033,31 +7033,31 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
+          <t>LINESTRING (1600.000534815056 1590.163270276257, 1599.9598491280824 1591.7169939772193, 1599.8379035838016 1593.2664590295155, 1599.635032426474 1594.8074184571387, 1599.3517917118409 1596.3356485974093, 1598.9889577830127 1597.846960677738, 1598.5475251425682 1599.3372122967633, 1598.0287037266917 1600.802318778383, 1597.4339155888206 1602.2382643675699, 1596.7647910018982 1603.6411132372748, 1596.0231639899066 1605.007020276257, 1595.2110673009358 1606.3322416282656, 1594.3307268355622 1607.6131449536897, 1593.38455554581 1608.846219385549, 1592.3751468214161 1610.0280851525356, 1591.3052673815316 1611.1555028427326, 1590.1778496913346 1612.2253822826171, 1588.9959839243481 1613.2347910070107, 1587.7629094924887 1614.1809622967633, 1586.4820061670646 1615.0613027621368, 1585.156784815056 1615.8733994511074, 1583.7908777760738 1616.6150264630992, 1582.3880289063688 1617.2841510500216, 1580.952083317182 1617.8789391878927, 1579.4869768355622 1618.3977606037693, 1577.996725216537 1618.8391932442137, 1576.4854131362083 1619.2020271730419, 1574.957182995938 1619.485267887675, 1573.4162235683145 1619.6881390450026, 1571.8667585160183 1619.8100845892834, 1570.313034815056 1619.850770276257)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1C8E7</t>
+          <t>72A8</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1659.060688818645</v>
+        <v>1610.781547372193</v>
       </c>
       <c r="E144" t="n">
-        <v>1864.309706159333</v>
+        <v>1130.642969674647</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
+          <t>LINESTRING (1599.9893787952 1149.538301097655, 1600.0300644821737 1147.9845773966927, 1600.1520100264545 1146.4351123443967, 1600.354881183782 1144.8941529167732, 1600.6381218984152 1143.3659227765029, 1601.0009558272434 1141.854610696174, 1601.4423884676878 1140.3643590771487, 1601.9612098835644 1138.8992525955289, 1602.5559980214355 1137.4633070063421, 1603.2251226083579 1136.0604581366372, 1603.9667496203494 1134.694551097655, 1604.7788463093202 1133.3693297456464, 1605.6591867746938 1132.0884264202223, 1606.6053580644461 1130.855351988363, 1607.61476678884 1129.6734862213764, 1608.6846462287244 1128.5460685311793, 1609.8120639189215 1127.4761890912948, 1610.993929685908 1126.4667803669013, 1612.2270041177674 1125.5206090771487, 1613.5079074431915 1124.6402686117754, 1614.8331287952 1123.8281719228046, 1616.1990358341823 1123.0865449108128, 1617.6018847038872 1122.4174203238904, 1619.037830293074 1121.8226321860193, 1620.5029367746938 1121.3038107701427, 1621.993188393719 1120.8623781296983, 1623.5045004740477 1120.49954420087, 1625.032730614318 1120.216303486237, 1626.5736900419415 1120.0134323289094, 1628.1231550942375 1119.8914867846286, 1629.6768787952 1119.850801097655)</t>
         </is>
       </c>
     </row>
@@ -7096,14 +7096,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1C8E8</t>
+          <t>72A9</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1659.060688818645</v>
+        <v>677.4982631467993</v>
       </c>
       <c r="E145" t="n">
-        <v>1864.309706159333</v>
+        <v>1589.999999999837</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
+          <t>LINESTRING (326.5125004356475 1589.999999999842, 1028.484025857951 1589.999999999833)</t>
         </is>
       </c>
     </row>
@@ -7142,14 +7142,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1C8E9</t>
+          <t>734F</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1659.060688818645</v>
+        <v>677.4982631467993</v>
       </c>
       <c r="E146" t="n">
-        <v>1864.309706159333</v>
+        <v>1589.999999999837</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
+          <t>LINESTRING (326.5125004356475 1589.999999999842, 1028.484025857951 1589.999999999833)</t>
         </is>
       </c>
     </row>
@@ -7188,14 +7188,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1C8EA</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1659.060688818645</v>
+        <v>300.0000004356579</v>
       </c>
       <c r="E147" t="n">
-        <v>1864.309706159333</v>
+        <v>928.0096865459384</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
+          <t>LINESTRING (300.000000435656 979.6875122897599, 300.0000004356597 876.3318608021169)</t>
         </is>
       </c>
     </row>
@@ -7234,14 +7234,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1C9E0</t>
+          <t>73F9</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1317.000000000001</v>
+        <v>300.0000004356579</v>
       </c>
       <c r="E148" t="n">
-        <v>1729.49999999984</v>
+        <v>928.0096865459384</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>LINESTRING (1317.000000000001 1728.49999999984, 1317.000000000001 1730.49999999984)</t>
+          <t>LINESTRING (300.000000435656 979.6875122897599, 300.0000004356597 876.3318608021169)</t>
         </is>
       </c>
     </row>
@@ -7280,14 +7280,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1C9E1</t>
+          <t>73FA</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1317.000000000001</v>
+        <v>220.000000000003</v>
       </c>
       <c r="E149" t="n">
-        <v>1695.499999999839</v>
+        <v>975.0000192538296</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>LINESTRING (1317.000000000001 1694.499999999839, 1317.000000000001 1696.49999999984)</t>
+          <t>LINESTRING (220.000000000003 975.0000122897274, 220.000000000003 975.0000262179318)</t>
         </is>
       </c>
     </row>
@@ -7326,14 +7326,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1C9E2</t>
+          <t>74A1</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1523.000000000001</v>
+        <v>220.000000000003</v>
       </c>
       <c r="E150" t="n">
-        <v>1695.499999999839</v>
+        <v>975.0000192538296</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -7355,31 +7355,31 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>LINESTRING (1523.000000000001 1694.499999999839, 1523.000000000001 1696.49999999984)</t>
+          <t>LINESTRING (220.000000000003 975.0000122897274, 220.000000000003 975.0000262179318)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1C9E3</t>
+          <t>74A3</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1523.000000000001</v>
+        <v>-985.7921808667257</v>
       </c>
       <c r="E151" t="n">
-        <v>1729.49999999984</v>
+        <v>2480.792918258172</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>LINESTRING (1523.000000000001 1730.49999999984, 1523.000000000001 1728.49999999984)</t>
+          <t>LINESTRING (-1004.6875122897331 2470.000749681179, -1003.1337885887708 2470.0414353681526, -1001.5843235364747 2470.1633809124332, -1000.0433641088513 2470.366252069761, -998.5151339685809 2470.649492784394, -997.0038218882521 2471.012326713222, -995.5135702692269 2471.4537593536666, -994.048463787607 2471.972580769543, -992.6125181984204 2472.567368907414, -991.2096693287153 2473.2364934943366, -989.8437622897331 2473.9781205063287, -988.5185409377245 2474.790217195299, -987.2376376123003 2475.670557660673, -986.0045631804411 2476.616728950425, -984.8226974134545 2477.626137674819, -983.6952797232575 2478.6960171147034, -982.625400283373 2479.8234348049004, -981.6159915589793 2481.005300571887, -980.6698202692269 2482.238375003746, -979.7894798038534 2483.5192783291704, -978.9773831148826 2484.844499681179, -978.235756102891 2486.2104067201612, -977.5666315159684 2487.613255589866, -976.9718433780974 2489.049201179053, -976.4530219622208 2490.514307660673, -976.0115893217763 2492.004559279698, -975.6487553929483 2493.5158713600267, -975.3655146783149 2495.044101500297, -975.1626435209874 2496.5850609279205, -975.0406979767066 2498.1345259802165, -975.000012289733 2499.688249681179)</t>
         </is>
       </c>
     </row>
@@ -7418,14 +7418,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1CA70</t>
+          <t>74A4</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1105.00000077932</v>
+        <v>140.0000000000026</v>
       </c>
       <c r="E152" t="n">
-        <v>1889.999999999841</v>
+        <v>975.0000122897274</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>LINESTRING (1116.11250077932 1889.999999999841, 1093.88750077932 1889.999999999841)</t>
+          <t>LINESTRING (140.0000000000027 975.0000122897274, 140.0000000000026 975.0000122897272)</t>
         </is>
       </c>
     </row>
@@ -7464,14 +7464,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1CA94</t>
+          <t>754A</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1104.996267103788</v>
+        <v>140.0000000000026</v>
       </c>
       <c r="E153" t="n">
-        <v>1889.999999999841</v>
+        <v>975.0000122897274</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -7493,31 +7493,31 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>LINESTRING (1093.883767103804 1889.999999999841, 1116.108767103772 1889.999999999841)</t>
+          <t>LINESTRING (140.0000000000027 975.0000122897274, 140.0000000000026 975.0000122897272)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1CA95</t>
+          <t>754C</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1104.996267103788</v>
+        <v>-985.7921808667257</v>
       </c>
       <c r="E154" t="n">
-        <v>1889.999999999841</v>
+        <v>2450.772419059681</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -7539,31 +7539,31 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>LINESTRING (1093.883767103804 1889.999999999841, 1116.108767103772 1889.999999999841)</t>
+          <t>LINESTRING (-1004.6875122897331 2439.980250482688, -1003.1337885887708 2440.0209361696616, -1001.5843235364747 2440.142881713942, -1000.0433641088513 2440.3457528712697, -998.5151339685809 2440.628993585903, -997.0038218882521 2440.991827514731, -995.5135702692269 2441.4332601551755, -994.048463787607 2441.952081571052, -992.6125181984204 2442.546869708923, -991.2096693287153 2443.2159942958456, -989.8437622897331 2443.9576213078376, -988.5185409377245 2444.769717996808, -987.2376376123003 2445.6500584621817, -986.0045631804411 2446.596229751934, -984.8226974134545 2447.605638476328, -983.6952797232575 2448.6755179162124, -982.625400283373 2449.8029356064094, -981.6159915589793 2450.984801373396, -980.6698202692269 2452.217875805255, -979.7894798038534 2453.4987791306794, -978.9773831148826 2454.824000482688, -978.235756102891 2456.18990752167, -977.5666315159684 2457.592756391375, -976.9718433780974 2459.028701980562, -976.4530219622208 2460.4938084621817, -976.0115893217763 2461.9840600812067, -975.6487553929483 2463.4953721615357, -975.3655146783149 2465.023602301806, -975.1626435209874 2466.5645617294294, -975.0406979767066 2468.1140267817254, -975.000012289733 2469.667750482688)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1CADC</t>
+          <t>77A0</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>595.0000146520005</v>
+        <v>964.2078325479991</v>
       </c>
       <c r="E155" t="n">
-        <v>1889.999999999843</v>
+        <v>2579.207833906887</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -7585,31 +7585,31 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>LINESTRING (595.0000146520006 1889.999999999843, 595.0000146520003 1889.999999999843)</t>
+          <t>LINESTRING (975.0000122897189 2560.31249611911, 974.9593265546982 2561.8662207368666, 974.8373808665393 2563.4156866984144, 974.634509470292 2564.9566470202403, 974.3512684230085 2566.4848780322245, 973.9884340696284 2567.9961909544427, 973.5470009150686 2569.486443378333, 973.0281788983508 2570.9515506207645, 972.4333900762393 2572.3874969198814, 971.7642647254776 2573.7903464420415, 971.0226368743075 2575.156254069674, 970.21053927552 2576.4814759404944, 969.3301978348135 2577.762379709179, 968.3840255097348 2578.9954545033875, 967.3746156959221 2580.1773205468266, 966.3047351187789 2581.3047384229967, 965.177316250064 2582.3746179542163, 963.9954492701797 2583.3840266715924, 962.762373598193 2584.330197852728, 961.481469012802 2585.210538105119, 960.1562463885867 2586.022634474477, 958.7903380729347 2586.7642610584726, 957.3874879300171 2587.4333851077886, 955.9515410791058 2588.0281725977493, 954.4864333553555 2588.5469932552637, 952.996180521941 2588.9884250272926, 951.4848672631164 2589.351257978604, 949.9566359883656 2589.634497608123, 948.4156754783337 2589.837367574797, 946.8662094036554 2589.9593118254916, 945.3124847481549 2589.9999961190974)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1CF1B</t>
+          <t>79F5</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>970.0000000000044</v>
+        <v>964.2078744018032</v>
       </c>
       <c r="E156" t="n">
-        <v>1889.999999999841</v>
+        <v>2579.207859333387</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>LINESTRING (50.00000000000596 1889.999999999844, 1890.000000000003 1889.999999999838)</t>
+          <t>LINESTRING (975.0000262179234 2560.312537465407, 974.9593406030798 2561.866259790046, 974.8373952747936 2563.4157234773415, 974.6345244761408 2564.956681562557, 974.3512842608932 2566.48491039418, 973.9884509694168 2567.996221210635, 973.5470191007801 2569.4864716213683, 973.0281985869065 2570.9515769608306, 972.4334114762405 2572.387521484245, 971.7642880360193 2573.7903693744615, 971.0226622838306 2575.15627552974, 970.210566960708 2576.48149610289, 969.3302279595375 2577.762398762875, 968.3840582240521 2578.995472650762, 967.3746511351316 2580.1773380027266, 966.3047734025387 2581.304755413733, 965.1773574815733 2582.3746347165006, 963.9954935354305 2583.384043451427, 962.7624209652934 2584.3302149042374, 961.4815195313752 2585.210555689345, 960.1563000892473 2586.0226528581275, 958.7903949668465 2586.7642805126393, 957.3875480085328 2587.433405906633, 955.9516043134915 2588.0281950171666, 954.4864996966019 2588.54701757152, 952.996249900661 2588.9884515156573, 951.4849395895325 2589.351286911965, 949.956711152385 2589.634529255606, 948.4157533497129 2589.8374022003813, 946.8662898322546 2589.9593496866355, 945.3125675642805 2590.000037465378)</t>
         </is>
       </c>
     </row>
@@ -7648,14 +7648,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1CF1C</t>
+          <t>79F6</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1430.000000000006</v>
+        <v>264.9593752178313</v>
       </c>
       <c r="E157" t="n">
-        <v>1889.99999999984</v>
+        <v>849.8193608021169</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1889.999999999839, 970.0000000000098 1889.999999999842)</t>
+          <t>LINESTRING (256.4312500000029 849.8193608021169, 273.4875004356597 849.8193608021169)</t>
         </is>
       </c>
     </row>
@@ -7694,14 +7694,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1CF1D</t>
+          <t>7A9D</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2385.000000000003</v>
+        <v>264.9593752178313</v>
       </c>
       <c r="E158" t="n">
-        <v>1289.999999999839</v>
+        <v>849.8193608021169</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>LINESTRING (1920.000000000002 1289.999999999841, 2850.000000000003 1289.999999999838)</t>
+          <t>LINESTRING (256.4312500000029 849.8193608021169, 273.4875004356597 849.8193608021169)</t>
         </is>
       </c>
     </row>
@@ -7740,14 +7740,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1CF1E</t>
+          <t>7A9F</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>50.00000000000466</v>
+        <v>220.0000000000031</v>
       </c>
       <c r="E159" t="n">
-        <v>969.9999999998452</v>
+        <v>912.209714183311</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>LINESTRING (50 49.99999999984535, 50.00000000000933 1889.999999999845)</t>
+          <t>LINESTRING (220.0000000000031 945.3125675642887, 220.0000000000031 879.1068608023332)</t>
         </is>
       </c>
     </row>
@@ -7786,14 +7786,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1CF1F</t>
+          <t>7B47</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>970.0000000000061</v>
+        <v>220.0000000000031</v>
       </c>
       <c r="E160" t="n">
-        <v>1889.999999999842</v>
+        <v>912.209714183311</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>LINESTRING (50.00000000000933 1889.999999999845, 1890.000000000003 1889.999999999838)</t>
+          <t>LINESTRING (220.0000000000031 945.3125675642887, 220.0000000000031 879.1068608023332)</t>
         </is>
       </c>
     </row>
@@ -7832,14 +7832,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1CF20</t>
+          <t>7B48</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1890.000000000002</v>
+        <v>234.643750000003</v>
       </c>
       <c r="E161" t="n">
-        <v>1589.999999999839</v>
+        <v>849.819360802364</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1889.999999999838, 1890 1289.999999999841)</t>
+          <t>LINESTRING (249.2875000000029 849.819360802364, 220.000000000003 849.819360802364)</t>
         </is>
       </c>
     </row>
@@ -7878,14 +7878,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1CF21</t>
+          <t>7B49</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2370.000000000002</v>
+        <v>220.000000000003</v>
       </c>
       <c r="E162" t="n">
-        <v>1289.999999999839</v>
+        <v>849.8193608023641</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>LINESTRING (1890 1289.999999999841, 2850.000000000003 1289.999999999838)</t>
+          <t>LINESTRING (220.0000000000029 820.5318608023949, 220.0000000000031 879.1068608023332)</t>
         </is>
       </c>
     </row>
@@ -7924,14 +7924,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1CF22</t>
+          <t>7BD5</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2850</v>
+        <v>252.8593750000029</v>
       </c>
       <c r="E163" t="n">
-        <v>669.9999999998369</v>
+        <v>849.8193608022405</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -7953,31 +7953,31 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>LINESTRING (2850.000000000003 1289.999999999838, 2849.999999999996 49.99999999983568)</t>
+          <t>LINESTRING (249.2875000000029 849.819360802364, 256.4312500000029 849.8193608021169)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1CF23</t>
+          <t>7BD7</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1449.999999999998</v>
+        <v>290.3620258875266</v>
       </c>
       <c r="E164" t="n">
-        <v>49.99999999984051</v>
+        <v>859.4573353502524</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>LINESTRING (2849.999999999996 49.99999999983568, 50 49.99999999984535)</t>
+          <t>LINESTRING (273.48750043565326 849.8193608021254, 274.8750574755443 849.8556952619448, 276.2588113180369 849.9645990511741, 277.6349691900324 850.1457736720969, 278.99975913845907 850.3987225376704, 280.3494403689338 850.7227523326364, 281.68031349901906 851.1169749138502, 282.98873069797304 851.5803097446184, 284.2711056852004 852.1114868563759, 285.52392355999797 852.7090503295813, 286.7437504356532 853.3713622842904, 287.92724285148915 854.0966073694723, 289.0711569370574 854.8827977387596, 290.1723573033621 855.7277784989974, 291.22782563674247 856.6292336166559, 292.2346689718616 857.584692265917, 293.19012762112266 858.5915356010361, 294.0915827387812 859.6470039344165, 294.9365634990191 860.7482043007211, 295.7227538683063 861.8921183862894, 296.4479989534882 863.0756108021253, 297.1103109081974 864.2954376777806, 297.70787438140275 865.5482555525781, 298.2390514931604 866.8306305398055, 298.7023863239286 868.1390477387595, 299.09660890514226 869.4699208688447, 299.4206387001084 870.8196020993195, 299.67358756568194 872.1843920477462, 299.8547621866047 873.5605499197417, 299.96366597583403 874.9443037622342, 300.00000043565336 876.3318608021252)</t>
         </is>
       </c>
     </row>
@@ -8016,14 +8016,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1CF24</t>
+          <t>839A</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>970.0000000000077</v>
+        <v>300.0000004356477</v>
       </c>
       <c r="E165" t="n">
-        <v>1889.999999999842</v>
+        <v>1321.587506144798</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>LINESTRING (970.0000000000057 1889.999999999842, 970.0000000000098 1889.999999999842)</t>
+          <t>LINESTRING (300.0000004356476 1563.487499999843, 300.0000004356476 1079.687512289752)</t>
         </is>
       </c>
     </row>
@@ -8062,14 +8062,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1CF25</t>
+          <t>8443</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>50.00000000000166</v>
+        <v>300.0000004356477</v>
       </c>
       <c r="E166" t="n">
-        <v>969.9999999998442</v>
+        <v>1321.587506144798</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -8091,31 +8091,31 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>LINESTRING (50.00000000000166 969.9999999998423, 50.00000000000166 969.9999999998462)</t>
+          <t>LINESTRING (300.0000004356476 1563.487499999843, 300.0000004356476 1079.687512289752)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1CF26</t>
+          <t>9514</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1890.000000000003</v>
+        <v>1905.358346393771</v>
       </c>
       <c r="E167" t="n">
-        <v>1589.999999999838</v>
+        <v>2580.360836076284</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -8137,31 +8137,31 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1589.99999999984, 1890.000000000003 1589.999999999836)</t>
+          <t>LINESTRING (1914.9963675269853 2563.486324974426, 1914.9600300735128 2564.8738828190876, 1914.85112320652 2566.2576373049446, 1914.6699454325392 2567.6337956523093, 1914.4169933478868 2568.9985859020094, 1914.0929602775266 2570.348267254077, 1913.6987343747107 2571.679140321036, 1913.2353961866113 2572.987557267676, 1912.7042156926111 2574.269931809532, 1912.1066488233744 2575.52274904265, 1911.4443334702369 2576.742575077708, 1910.719084995854 2577.9260664520793, 1909.9328912584112 2579.0699792940445, 1909.0879071630368 2580.171178214027, 1908.1864487553482 2581.226644898491, 1907.2309868733241 2582.233486382939, 1906.2241403749017 2583.188942981337, 1905.1686689598585 2584.0903958502286, 1904.0674656056583 2584.9353741668174, 1902.9235486379912 2585.7215619013245, 1901.7400534577414 2586.446804165076, 1900.5202239470605 2587.1091131169096, 1899.2674035781013 2587.706673411715, 1897.9850262487812 2588.2378471761763, 1896.6766068706938 2588.701178498075, 1895.3457317349698 2589.095397416848, 1893.9960486824887 2589.4194234044653, 1892.6312571053877 2589.672368327089, 1891.2550978072732 2589.8535388793857, 1889.8713427499238 2589.9624384848325, 1888.483784714593 2589.9987686568015)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1CF27</t>
+          <t>9516</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2385.000000000004</v>
+        <v>309.6378621547095</v>
       </c>
       <c r="E168" t="n">
-        <v>1289.99999999984</v>
+        <v>1580.362025451708</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -8183,31 +8183,31 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>LINESTRING (2385.000000000002 1289.99999999984, 2385.000000000006 1289.99999999984)</t>
+          <t>LINESTRING (326.5123876065826 1589.9999999998352, 325.1248305666915 1589.9636655400157, 323.74107672419893 1589.8547617507866, 322.36491885220346 1589.6735871298638, 321.0001289037767 1589.4206382642901, 319.650447673302 1589.096608469324, 318.3195745432168 1588.7023858881103, 317.0111573442628 1588.239051057342, 315.72878235703547 1587.7078739455847, 314.4759644822379 1587.1103104723793, 313.2561376065826 1586.44799851767, 312.0726451907467 1585.7227534324882, 310.92873110517843 1584.936563063201, 309.8275307388738 1584.0915823029632, 308.7720624054934 1583.1901271853046, 307.76521907037426 1582.2346685360435, 306.8097604211132 1581.2278252009244, 305.90830530345465 1580.1723568675438, 305.0633245432168 1579.0711565012393, 304.27713417392954 1577.9272424156711, 303.55188908874766 1576.7437499998352, 302.8895771340385 1575.5239231241799, 302.29201366083316 1574.2711052493823, 301.7608365490755 1572.9887302621548, 301.29750171830733 1571.6803130632009, 300.9032791370937 1570.3494399331157, 300.5792493421276 1568.999758702641, 300.326300476554 1567.6349687542142, 300.14512585563125 1566.2588108822188, 300.03622206640193 1564.8750570397262, 299.9998876065826 1563.487499999835)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>LINE</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1CF28</t>
+          <t>9518</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1449.999999999996</v>
+        <v>1045.358438480754</v>
       </c>
       <c r="E169" t="n">
-        <v>49.99999999984021</v>
+        <v>1599.646064471018</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>LINESTRING (1449.999999999998 49.99999999984021, 1449.999999999994 49.99999999984021)</t>
+          <t>LINESTRING (1028.4839130288808 1590.008089922892, 1029.871470068772 1590.0444243827114, 1031.2552239112645 1590.1533281719405, 1032.63138178326 1590.3345027928633, 1033.9961717316867 1590.587451658437, 1035.3458529621614 1590.911481453403, 1036.6767260922468 1591.3057040346166, 1037.9851432912008 1591.7690388653848, 1039.267518278428 1592.3002159771424, 1040.5203361532256 1592.8977794503478, 1041.740163028881 1593.560091405057, 1042.9236554447168 1594.285336490239, 1044.067569530285 1595.071526859526, 1045.1687698965898 1595.916507619764, 1046.22423822997 1596.8179627374225, 1047.2310815650892 1597.7734213866836, 1048.1865402143503 1598.7802647218027, 1049.0879953320089 1599.835733055183, 1049.9329760922467 1600.9369334214878, 1050.719166461534 1602.080847507056, 1051.4444115467159 1603.2643399228918, 1052.106723501425 1604.484166798547, 1052.7042869746303 1605.7369846733448, 1053.235464086388 1607.019359660572, 1053.6987989171562 1608.327776859526, 1054.0930214983698 1609.6586499896111, 1054.417051293336 1611.008331220086, 1054.6700001589095 1612.3731211685126, 1054.8511747798323 1613.749279040508, 1054.9600785690616 1615.1330328830009, 1054.996413028881 1616.5205899228918)</t>
         </is>
       </c>
     </row>
@@ -8246,14 +8246,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1D95A</t>
+          <t>1C8BC</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>70.0000000000007</v>
+        <v>1182.939311181363</v>
       </c>
       <c r="E170" t="n">
-        <v>369.9999999998448</v>
+        <v>1864.309706159335</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>LINESTRING (70.0000000000007 369.9999999998468, 70.0000000000007 369.9999999998429)</t>
+          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
         </is>
       </c>
     </row>
@@ -8292,14 +8292,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1D95B</t>
+          <t>1C8BD</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>70.00000000000176</v>
+        <v>1182.939311181363</v>
       </c>
       <c r="E171" t="n">
-        <v>1029.999999999844</v>
+        <v>1864.309706159335</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>LINESTRING (70.00000000000037 169.9999999998447, 70.00000000000315 1889.999999999844)</t>
+          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
         </is>
       </c>
     </row>
@@ -8338,14 +8338,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1D95C</t>
+          <t>1C8E1</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>70.00000000000264</v>
+        <v>1182.939311181363</v>
       </c>
       <c r="E172" t="n">
-        <v>1569.999999999846</v>
+        <v>1864.309706159335</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>LINESTRING (70.00000000000264 1569.999999999847, 70.00000000000264 1569.999999999844)</t>
+          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
         </is>
       </c>
     </row>
@@ -8384,14 +8384,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1D95D</t>
+          <t>1C8E2</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>70.00000000000266</v>
+        <v>1182.939311181363</v>
       </c>
       <c r="E173" t="n">
-        <v>1584.999999999844</v>
+        <v>1864.309706159335</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>LINESTRING (70.00000000000266 1584.999999999845, 70.00000000000266 1584.999999999844)</t>
+          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
         </is>
       </c>
     </row>
@@ -8430,14 +8430,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1D95E</t>
+          <t>1C8E3</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>70.00000000000166</v>
+        <v>1182.939311181363</v>
       </c>
       <c r="E174" t="n">
-        <v>969.9999999998429</v>
+        <v>1864.309706159335</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>LINESTRING (70.00000000000037 169.9999999998427, 70.00000000000296 1769.999999999843)</t>
+          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
         </is>
       </c>
     </row>
@@ -8476,14 +8476,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1D95F</t>
+          <t>1C8E4</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>70.00000000000131</v>
+        <v>1182.939311181363</v>
       </c>
       <c r="E175" t="n">
-        <v>744.9999999998424</v>
+        <v>1864.309706159335</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>LINESTRING (70.00000000000037 169.9999999998408, 70.00000000000223 1319.999999999844)</t>
+          <t>LINESTRING (1182.939311181363 1864.309706159335, 1182.939311181363 1864.309706159335)</t>
         </is>
       </c>
     </row>
@@ -8522,14 +8522,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1D960</t>
+          <t>1C8E5</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>960.0004783115519</v>
+        <v>1659.060688818645</v>
       </c>
       <c r="E176" t="n">
-        <v>1049.999999999844</v>
+        <v>1864.309706159333</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>LINESTRING (1920.000956623102 1049.999999999835, 0.000000000001895 1049.999999999853)</t>
+          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
         </is>
       </c>
     </row>
@@ -8568,14 +8568,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1D961</t>
+          <t>1C8E6</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>669.9999999999953</v>
+        <v>1659.060688818645</v>
       </c>
       <c r="E177" t="n">
-        <v>859.9999999998428</v>
+        <v>1864.309706159333</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>LINESTRING (670.0000000000017 1649.999999999843, 669.9999999999893 69.99999999984277)</t>
+          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
         </is>
       </c>
     </row>
@@ -8614,14 +8614,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1D962</t>
+          <t>1C8E7</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1269.999999999995</v>
+        <v>1659.060688818645</v>
       </c>
       <c r="E178" t="n">
-        <v>859.9999999998399</v>
+        <v>1864.309706159333</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>LINESTRING (1270.000000000002 1649.999999999839, 1269.999999999989 69.99999999984088)</t>
+          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
         </is>
       </c>
     </row>
@@ -8660,14 +8660,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1D963</t>
+          <t>1C8E8</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>985.0004783115495</v>
+        <v>1659.060688818645</v>
       </c>
       <c r="E179" t="n">
-        <v>449.999999999844</v>
+        <v>1864.309706159333</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>LINESTRING (1920.000956623098 449.9999999998351, 50.00000000000081 449.999999999853)</t>
+          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
         </is>
       </c>
     </row>
@@ -8706,14 +8706,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1D964</t>
+          <t>1C8E9</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1869.999999999993</v>
+        <v>1659.060688818645</v>
       </c>
       <c r="E180" t="n">
-        <v>669.9999999997988</v>
+        <v>1864.309706159333</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>LINESTRING (1869.999999999998 1269.999999999799, 1869.999999999989 69.99999999979865)</t>
+          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
         </is>
       </c>
     </row>
@@ -8752,14 +8752,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1D965</t>
+          <t>1C8EA</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2375.000478311551</v>
+        <v>1659.060688818645</v>
       </c>
       <c r="E181" t="n">
-        <v>669.9988846666383</v>
+        <v>1864.309706159333</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>LINESTRING (1920.000956623102 669.998884666642, 2830.000000000001 669.9988846666346)</t>
+          <t>LINESTRING (1659.060688818645 1864.309706159333, 1659.060688818645 1864.309706159333)</t>
         </is>
       </c>
     </row>
@@ -8798,14 +8798,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1D966</t>
+          <t>1C9E0</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2710.000000000005</v>
+        <v>1317.000000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>595.2494423332126</v>
+        <v>1729.49999999984</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>LINESTRING (2709.999999999999 69.99999999979121, 2710.00000000001 1120.498884666634)</t>
+          <t>LINESTRING (1317.000000000001 1728.49999999984, 1317.000000000001 1730.49999999984)</t>
         </is>
       </c>
     </row>
@@ -8844,14 +8844,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1D967</t>
+          <t>1C9E1</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2740.000000000003</v>
+        <v>1317.000000000001</v>
       </c>
       <c r="E183" t="n">
-        <v>1149.998884666631</v>
+        <v>1695.499999999839</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>LINESTRING (2630.000000000003 1149.998884666632, 2850.000000000003 1149.998884666629)</t>
+          <t>LINESTRING (1317.000000000001 1694.499999999839, 1317.000000000001 1696.49999999984)</t>
         </is>
       </c>
     </row>
@@ -8890,14 +8890,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1D968</t>
+          <t>1C9E2</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2630.000000000004</v>
+        <v>1523.000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>1219.999442333236</v>
+        <v>1695.499999999839</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>LINESTRING (2630.000000000003 1149.998884666632, 2630.000000000005 1289.99999999984)</t>
+          <t>LINESTRING (1523.000000000001 1694.499999999839, 1523.000000000001 1696.49999999984)</t>
         </is>
       </c>
     </row>
@@ -8936,14 +8936,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1D969</t>
+          <t>1C9E3</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2410.000000000009</v>
+        <v>1523.000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>969.9988846666367</v>
+        <v>1729.49999999984</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.000000000009 969.9988846666391, 2710.000000000008 969.9988846666341)</t>
+          <t>LINESTRING (1523.000000000001 1730.49999999984, 1523.000000000001 1728.49999999984)</t>
         </is>
       </c>
     </row>
@@ -8982,14 +8982,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1D96A</t>
+          <t>1CA70</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2110.000000000005</v>
+        <v>1105.00000077932</v>
       </c>
       <c r="E186" t="n">
-        <v>662.4999999998187</v>
+        <v>1889.999999999841</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>LINESTRING (2109.999999999999 69.9999999997962, 2110.000000000012 1254.999999999841)</t>
+          <t>LINESTRING (1116.11250077932 1889.999999999841, 1093.88750077932 1889.999999999841)</t>
         </is>
       </c>
     </row>
@@ -9028,14 +9028,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1D96B</t>
+          <t>1CA94</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2410.000000000009</v>
+        <v>1104.996267103788</v>
       </c>
       <c r="E187" t="n">
-        <v>969.9988846666367</v>
+        <v>1889.999999999841</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.000000000009 969.9988846666391, 2710.000000000008 969.9988846666341)</t>
+          <t>LINESTRING (1093.883767103804 1889.999999999841, 1116.108767103772 1889.999999999841)</t>
         </is>
       </c>
     </row>
@@ -9074,14 +9074,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1D96C</t>
+          <t>1CA95</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2410.000000000003</v>
+        <v>1104.996267103788</v>
       </c>
       <c r="E188" t="n">
-        <v>369.9988846666367</v>
+        <v>1889.999999999841</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.000000000002 369.9988846666392, 2710.000000000003 369.9988846666343)</t>
+          <t>LINESTRING (1093.883767103804 1889.999999999841, 1116.108767103772 1889.999999999841)</t>
         </is>
       </c>
     </row>
@@ -9120,14 +9120,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1D96D</t>
+          <t>1CADC</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2410.000000000002</v>
+        <v>595.0000146520005</v>
       </c>
       <c r="E189" t="n">
-        <v>219.9988846666367</v>
+        <v>1889.999999999843</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.000000000002 219.9988846666392, 2710.000000000002 219.9988846666343)</t>
+          <t>LINESTRING (595.0000146520006 1889.999999999843, 595.0000146520003 1889.999999999843)</t>
         </is>
       </c>
     </row>
@@ -9166,14 +9166,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1D96E</t>
+          <t>1CF1B</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2460</v>
+        <v>970.0000000000044</v>
       </c>
       <c r="E190" t="n">
-        <v>69.99999999979329</v>
+        <v>1889.999999999841</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>LINESTRING (2109.999999999999 69.9999999997962, 2810 69.99999999979038)</t>
+          <t>LINESTRING (50.00000000000596 1889.999999999844, 1890.000000000003 1889.999999999838)</t>
         </is>
       </c>
     </row>
@@ -9212,14 +9212,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1D96F</t>
+          <t>1CF1C</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2015.000478311548</v>
+        <v>1430.000000000006</v>
       </c>
       <c r="E191" t="n">
-        <v>69.9999999997961</v>
+        <v>1889.99999999984</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>LINESTRING (1920.000956623096 69.99999999979688, 2109.999999999999 69.9999999997953)</t>
+          <t>LINESTRING (1890.000000000003 1889.999999999839, 970.0000000000098 1889.999999999842)</t>
         </is>
       </c>
     </row>
@@ -9258,14 +9258,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1D970</t>
+          <t>1CF1D</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2410.000000000007</v>
+        <v>2385.000000000003</v>
       </c>
       <c r="E192" t="n">
-        <v>819.9988846666366</v>
+        <v>1289.999999999839</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.000000000007 819.9988846666391, 2710.000000000007 819.9988846666341)</t>
+          <t>LINESTRING (1920.000000000002 1289.999999999841, 2850.000000000003 1289.999999999838)</t>
         </is>
       </c>
     </row>
@@ -9304,14 +9304,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1D971</t>
+          <t>1CF1E</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2410.000000000005</v>
+        <v>50.00000000000466</v>
       </c>
       <c r="E193" t="n">
-        <v>519.9988846666367</v>
+        <v>969.9999999998452</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.000000000005 519.9988846666392, 2710.000000000004 519.9988846666342)</t>
+          <t>LINESTRING (50 49.99999999984535, 50.00000000000933 1889.999999999845)</t>
         </is>
       </c>
     </row>
@@ -9350,14 +9350,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1D972</t>
+          <t>1CF1F</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2410.00000000001</v>
+        <v>970.0000000000061</v>
       </c>
       <c r="E194" t="n">
-        <v>1120.498884666637</v>
+        <v>1889.999999999842</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>LINESTRING (2110.00000000001 1120.498884666639, 2710.00000000001 1120.498884666634)</t>
+          <t>LINESTRING (50.00000000000933 1889.999999999845, 1890.000000000003 1889.999999999838)</t>
         </is>
       </c>
     </row>
@@ -9396,14 +9396,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1D973</t>
+          <t>1CF20</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2710.000000000005</v>
+        <v>1890.000000000002</v>
       </c>
       <c r="E195" t="n">
-        <v>609.9994423332112</v>
+        <v>1589.999999999839</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>LINESTRING (2709.999999999999 69.99999999979121, 2710.000000000011 1149.998884666631)</t>
+          <t>LINESTRING (1890.000000000003 1889.999999999838, 1890 1289.999999999841)</t>
         </is>
       </c>
     </row>
@@ -9442,14 +9442,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1D974</t>
+          <t>1CF21</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2015.000478311554</v>
+        <v>2370.000000000002</v>
       </c>
       <c r="E196" t="n">
-        <v>669.999999999796</v>
+        <v>1289.999999999839</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>LINESTRING (2015.000478311548 69.99999999979609, 2015.00047831156 1269.999999999796)</t>
+          <t>LINESTRING (1890 1289.999999999841, 2850.000000000003 1289.999999999838)</t>
         </is>
       </c>
     </row>
@@ -9488,14 +9488,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1D975</t>
+          <t>1CF22</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2830.000000000002</v>
+        <v>2850</v>
       </c>
       <c r="E197" t="n">
-        <v>599.9994423332334</v>
+        <v>669.9999999998369</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>LINESTRING (2830.000000000001 49.99999999983785, 2830.000000000003 1149.998884666629)</t>
+          <t>LINESTRING (2850.000000000003 1289.999999999838, 2849.999999999996 49.99999999983568)</t>
         </is>
       </c>
     </row>
@@ -9534,14 +9534,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1D976</t>
+          <t>1CF23</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2830.000000000002</v>
+        <v>1449.999999999998</v>
       </c>
       <c r="E198" t="n">
-        <v>769.9999999998395</v>
+        <v>49.99999999984051</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>LINESTRING (2830.000000000002 769.9999999998404, 2830.000000000002 769.9999999998387)</t>
+          <t>LINESTRING (2849.999999999996 49.99999999983568, 50 49.99999999984535)</t>
         </is>
       </c>
     </row>
@@ -9580,14 +9580,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1D977</t>
+          <t>1CF24</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2830.000000000003</v>
+        <v>970.0000000000077</v>
       </c>
       <c r="E199" t="n">
-        <v>1019.999999999835</v>
+        <v>1889.999999999842</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>LINESTRING (2830.000000000002 769.9999999998358, 2830.000000000003 1269.999999999835)</t>
+          <t>LINESTRING (970.0000000000057 1889.999999999842, 970.0000000000098 1889.999999999842)</t>
         </is>
       </c>
     </row>
@@ -9626,14 +9626,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1D978</t>
+          <t>1CF25</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2830.000000000003</v>
+        <v>50.00000000000166</v>
       </c>
       <c r="E200" t="n">
-        <v>1019.999999999835</v>
+        <v>969.9999999998442</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>LINESTRING (2830.000000000002 769.9999999998358, 2830.000000000003 1269.999999999835)</t>
+          <t>LINESTRING (50.00000000000166 969.9999999998423, 50.00000000000166 969.9999999998462)</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1D979</t>
+          <t>1CF26</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2375.000000000002</v>
+        <v>1890.000000000003</v>
       </c>
       <c r="E201" t="n">
-        <v>1269.999999999838</v>
+        <v>1589.999999999838</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>LINESTRING (2375.000000000003 1269.999999999838, 2375 1269.999999999838)</t>
+          <t>LINESTRING (1890.000000000003 1589.99999999984, 1890.000000000003 1589.999999999836)</t>
         </is>
       </c>
     </row>
@@ -9718,14 +9718,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1D97A</t>
+          <t>1CF27</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2360.000000000003</v>
+        <v>2385.000000000004</v>
       </c>
       <c r="E202" t="n">
-        <v>1269.999999999838</v>
+        <v>1289.99999999984</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1269.999999999839, 2830.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (2385.000000000002 1289.99999999984, 2385.000000000006 1289.99999999984)</t>
         </is>
       </c>
     </row>
@@ -9764,14 +9764,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1D97B</t>
+          <t>1CF28</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2370.000000000003</v>
+        <v>1449.999999999996</v>
       </c>
       <c r="E203" t="n">
-        <v>1269.999999999838</v>
+        <v>49.99999999984021</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (1449.999999999998 49.99999999984021, 1449.999999999994 49.99999999984021)</t>
         </is>
       </c>
     </row>
@@ -9810,14 +9810,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1D97C</t>
+          <t>1D95A</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2370.000000000003</v>
+        <v>70.0000000000007</v>
       </c>
       <c r="E204" t="n">
-        <v>1269.999999999838</v>
+        <v>369.9999999998448</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000002 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (70.0000000000007 369.9999999998468, 70.0000000000007 369.9999999998429)</t>
         </is>
       </c>
     </row>
@@ -9856,14 +9856,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1D97D</t>
+          <t>1D95B</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2370.000000000059</v>
+        <v>70.00000000000176</v>
       </c>
       <c r="E205" t="n">
-        <v>1269.999999999838</v>
+        <v>1029.999999999844</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>LINESTRING (1910.000000000009 1269.999999999839, 2830.000000000109 1269.999999999836)</t>
+          <t>LINESTRING (70.00000000000037 169.9999999998447, 70.00000000000315 1889.999999999844)</t>
         </is>
       </c>
     </row>
@@ -9902,14 +9902,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1D97E</t>
+          <t>1D95C</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2370.000000000003</v>
+        <v>70.00000000000264</v>
       </c>
       <c r="E206" t="n">
-        <v>1269.999999999838</v>
+        <v>1569.999999999846</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (70.00000000000264 1569.999999999847, 70.00000000000264 1569.999999999844)</t>
         </is>
       </c>
     </row>
@@ -9948,14 +9948,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1D97F</t>
+          <t>1D95D</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2360.000000000003</v>
+        <v>70.00000000000266</v>
       </c>
       <c r="E207" t="n">
-        <v>1269.999999999838</v>
+        <v>1584.999999999844</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000003 1269.999999999839, 2830.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (70.00000000000266 1584.999999999845, 70.00000000000266 1584.999999999844)</t>
         </is>
       </c>
     </row>
@@ -9994,14 +9994,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1D980</t>
+          <t>1D95E</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2370.000000000003</v>
+        <v>70.00000000000166</v>
       </c>
       <c r="E208" t="n">
-        <v>1269.999999999838</v>
+        <v>969.9999999998429</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>LINESTRING (1890.000000000002 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (70.00000000000037 169.9999999998427, 70.00000000000296 1769.999999999843)</t>
         </is>
       </c>
     </row>
@@ -10040,14 +10040,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1D981</t>
+          <t>1D95F</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2350.000000000091</v>
+        <v>70.00000000000131</v>
       </c>
       <c r="E209" t="n">
-        <v>1269.999999999838</v>
+        <v>744.9999999998424</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>LINESTRING (1870.000000000002 1269.999999999839, 2830.00000000018 1269.999999999836)</t>
+          <t>LINESTRING (70.00000000000037 169.9999999998408, 70.00000000000223 1319.999999999844)</t>
         </is>
       </c>
     </row>
@@ -10086,14 +10086,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1D982</t>
+          <t>1D960</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1870.000000000003</v>
+        <v>960.0004783115519</v>
       </c>
       <c r="E210" t="n">
-        <v>1494.999999999842</v>
+        <v>1049.999999999844</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>LINESTRING (1870.000000000003 1719.999999999845, 1870.000000000002 1269.999999999839)</t>
+          <t>LINESTRING (1920.000956623102 1049.999999999835, 0.000000000001895 1049.999999999853)</t>
         </is>
       </c>
     </row>
@@ -10132,14 +10132,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1D983</t>
+          <t>1D961</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1870.000000000003</v>
+        <v>669.9999999999953</v>
       </c>
       <c r="E211" t="n">
-        <v>1494.999999999842</v>
+        <v>859.9999999998428</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>LINESTRING (1870.000000000003 1719.999999999845, 1870.000000000002 1269.999999999839)</t>
+          <t>LINESTRING (670.0000000000017 1649.999999999843, 669.9999999999893 69.99999999984277)</t>
         </is>
       </c>
     </row>
@@ -10178,14 +10178,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1D984</t>
+          <t>1D962</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1870.000000000003</v>
+        <v>1269.999999999995</v>
       </c>
       <c r="E212" t="n">
-        <v>1451.24944233324</v>
+        <v>859.9999999998399</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -10207,7 +10207,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>LINESTRING (1870.000000000003 1649.999999999838, 1870.000000000002 1252.498884666641)</t>
+          <t>LINESTRING (1270.000000000002 1649.999999999839, 1269.999999999989 69.99999999984088)</t>
         </is>
       </c>
     </row>
@@ -10224,14 +10224,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1D985</t>
+          <t>1D963</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1870.000000000002</v>
+        <v>985.0004783115495</v>
       </c>
       <c r="E213" t="n">
-        <v>1459.999999999838</v>
+        <v>449.999999999844</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>LINESTRING (1870.000000000003 1649.999999999838, 1870.000000000002 1269.999999999837)</t>
+          <t>LINESTRING (1920.000956623098 449.9999999998351, 50.00000000000081 449.999999999853)</t>
         </is>
       </c>
     </row>
@@ -10270,14 +10270,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1D986</t>
+          <t>1D964</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2830.000000000001</v>
+        <v>1869.999999999993</v>
       </c>
       <c r="E214" t="n">
-        <v>169.9999999998396</v>
+        <v>669.9999999997988</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>LINESTRING (2830.000000000001 169.9999999998388, 2830.000000000001 169.9999999998405)</t>
+          <t>LINESTRING (1869.999999999998 1269.999999999799, 1869.999999999989 69.99999999979865)</t>
         </is>
       </c>
     </row>
@@ -10316,14 +10316,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1D987</t>
+          <t>1D965</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2830.000000000002</v>
+        <v>2375.000478311551</v>
       </c>
       <c r="E215" t="n">
-        <v>659.999999999837</v>
+        <v>669.9988846666383</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>LINESTRING (2830.000000000001 49.99999999983785, 2830.000000000003 1269.999999999836)</t>
+          <t>LINESTRING (1920.000956623102 669.998884666642, 2830.000000000001 669.9988846666346)</t>
         </is>
       </c>
     </row>
@@ -10362,14 +10362,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1D988</t>
+          <t>1D966</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>70.00000000000166</v>
+        <v>2710.000000000005</v>
       </c>
       <c r="E216" t="n">
-        <v>971.2790768539826</v>
+        <v>595.2494423332126</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>LINESTRING (70.00000000000166 971.2790768539846, 70.00000000000166 971.2790768539807)</t>
+          <t>LINESTRING (2709.999999999999 69.99999999979121, 2710.00000000001 1120.498884666634)</t>
         </is>
       </c>
     </row>
@@ -10408,14 +10408,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1D989</t>
+          <t>1D967</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1645.000000000004</v>
+        <v>2740.000000000003</v>
       </c>
       <c r="E217" t="n">
-        <v>1649.999999999837</v>
+        <v>1149.998884666631</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -10436,6 +10436,1570 @@
         <v>1</v>
       </c>
       <c r="N217" t="inlineStr">
+        <is>
+          <t>LINESTRING (2630.000000000003 1149.998884666632, 2850.000000000003 1149.998884666629)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1D968</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>2630.000000000004</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1219.999442333236</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>LINESTRING (2630.000000000003 1149.998884666632, 2630.000000000005 1289.99999999984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1D969</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>2410.000000000009</v>
+      </c>
+      <c r="E219" t="n">
+        <v>969.9988846666367</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.000000000009 969.9988846666391, 2710.000000000008 969.9988846666341)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1D96A</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>2110.000000000005</v>
+      </c>
+      <c r="E220" t="n">
+        <v>662.4999999998187</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>LINESTRING (2109.999999999999 69.9999999997962, 2110.000000000012 1254.999999999841)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1D96B</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>2410.000000000009</v>
+      </c>
+      <c r="E221" t="n">
+        <v>969.9988846666367</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.000000000009 969.9988846666391, 2710.000000000008 969.9988846666341)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1D96C</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2410.000000000003</v>
+      </c>
+      <c r="E222" t="n">
+        <v>369.9988846666367</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.000000000002 369.9988846666392, 2710.000000000003 369.9988846666343)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1D96D</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>2410.000000000002</v>
+      </c>
+      <c r="E223" t="n">
+        <v>219.9988846666367</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.000000000002 219.9988846666392, 2710.000000000002 219.9988846666343)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1D96E</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>2460</v>
+      </c>
+      <c r="E224" t="n">
+        <v>69.99999999979329</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>LINESTRING (2109.999999999999 69.9999999997962, 2810 69.99999999979038)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1D96F</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>2015.000478311548</v>
+      </c>
+      <c r="E225" t="n">
+        <v>69.9999999997961</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>LINESTRING (1920.000956623096 69.99999999979688, 2109.999999999999 69.9999999997953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1D970</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>2410.000000000007</v>
+      </c>
+      <c r="E226" t="n">
+        <v>819.9988846666366</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.000000000007 819.9988846666391, 2710.000000000007 819.9988846666341)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1D971</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>2410.000000000005</v>
+      </c>
+      <c r="E227" t="n">
+        <v>519.9988846666367</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.000000000005 519.9988846666392, 2710.000000000004 519.9988846666342)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1D972</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>2410.00000000001</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1120.498884666637</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>LINESTRING (2110.00000000001 1120.498884666639, 2710.00000000001 1120.498884666634)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1D973</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>2710.000000000005</v>
+      </c>
+      <c r="E229" t="n">
+        <v>609.9994423332112</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>LINESTRING (2709.999999999999 69.99999999979121, 2710.000000000011 1149.998884666631)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1D974</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>2015.000478311554</v>
+      </c>
+      <c r="E230" t="n">
+        <v>669.999999999796</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>LINESTRING (2015.000478311548 69.99999999979609, 2015.00047831156 1269.999999999796)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1D975</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>2830.000000000002</v>
+      </c>
+      <c r="E231" t="n">
+        <v>599.9994423332334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>LINESTRING (2830.000000000001 49.99999999983785, 2830.000000000003 1149.998884666629)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1D976</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>2830.000000000002</v>
+      </c>
+      <c r="E232" t="n">
+        <v>769.9999999998395</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>LINESTRING (2830.000000000002 769.9999999998404, 2830.000000000002 769.9999999998387)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1D977</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>2830.000000000003</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1019.999999999835</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>LINESTRING (2830.000000000002 769.9999999998358, 2830.000000000003 1269.999999999835)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1D978</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>2830.000000000003</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1019.999999999835</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>LINESTRING (2830.000000000002 769.9999999998358, 2830.000000000003 1269.999999999835)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1D979</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>2375.000000000002</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>LINESTRING (2375.000000000003 1269.999999999838, 2375 1269.999999999838)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1D97A</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>2360.000000000003</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>LINESTRING (1890.000000000003 1269.999999999839, 2830.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1D97B</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>2370.000000000003</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>LINESTRING (1890.000000000003 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1D97C</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>2370.000000000003</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>LINESTRING (1890.000000000002 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1D97D</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>2370.000000000059</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>LINESTRING (1910.000000000009 1269.999999999839, 2830.000000000109 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1D97E</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>2370.000000000003</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>LINESTRING (1890.000000000003 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1D97F</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>2360.000000000003</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>LINESTRING (1890.000000000003 1269.999999999839, 2830.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1D980</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>2370.000000000003</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>LINESTRING (1890.000000000002 1269.999999999839, 2850.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1D981</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>2350.000000000091</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1269.999999999838</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>LINESTRING (1870.000000000002 1269.999999999839, 2830.00000000018 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1D982</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1870.000000000003</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1494.999999999842</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>LINESTRING (1870.000000000003 1719.999999999845, 1870.000000000002 1269.999999999839)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1D983</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1870.000000000003</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1494.999999999842</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>LINESTRING (1870.000000000003 1719.999999999845, 1870.000000000002 1269.999999999839)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1D984</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1870.000000000003</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1451.24944233324</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>LINESTRING (1870.000000000003 1649.999999999838, 1870.000000000002 1252.498884666641)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1D985</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1870.000000000002</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1459.999999999838</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>LINESTRING (1870.000000000003 1649.999999999838, 1870.000000000002 1269.999999999837)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1D986</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>2830.000000000001</v>
+      </c>
+      <c r="E248" t="n">
+        <v>169.9999999998396</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>LINESTRING (2830.000000000001 169.9999999998388, 2830.000000000001 169.9999999998405)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1D987</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>2830.000000000002</v>
+      </c>
+      <c r="E249" t="n">
+        <v>659.999999999837</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>LINESTRING (2830.000000000001 49.99999999983785, 2830.000000000003 1269.999999999836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1D988</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>70.00000000000166</v>
+      </c>
+      <c r="E250" t="n">
+        <v>971.2790768539826</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>LINESTRING (70.00000000000166 971.2790768539846, 70.00000000000166 971.2790768539807)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1D989</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1645.000000000004</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1649.999999999837</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr">
         <is>
           <t>LINESTRING (1870.000000000004 1649.999999999836, 1420.000000000003 1649.999999999837)</t>
         </is>
